--- a/Análisis/Entropías.xlsx
+++ b/Análisis/Entropías.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maca\Desktop\Biosensores\Promedios réplicas todo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maca\Desktop\Biosensores\Análisis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7230" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="E1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="H(Y)" sheetId="7" r:id="rId5"/>
     <sheet name="H(R) " sheetId="8" r:id="rId6"/>
     <sheet name="H(C)" sheetId="9" r:id="rId7"/>
+    <sheet name="I(x)" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="913" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="136">
   <si>
     <t>H(dY) =  [3.6868265, 2.9523029, 3.32463, 3.0725625, 3.6999002, 2.5636001, 2.611618, 3.1162422]</t>
   </si>
@@ -104,9 +105,6 @@
     <t>H(dC|dY,dR,dlogOD) =  [0.53187609, 0.42687893, 0.69529963, 0.68754339, 0.85438728, 1.1679926, 1.099268, 0.75723743]</t>
   </si>
   <si>
-    <t>​</t>
-  </si>
-  <si>
     <t>H(dY) =  [3.3249848, 3.0725625, 3.4138663, 3.5538678, 3.2261755, 3.1159847, 3.276247, 3.3280439]</t>
   </si>
   <si>
@@ -366,6 +364,81 @@
   </si>
   <si>
     <t>H(dC|dY,dR,dlogOD) =  [0.67927313, 0.85424757, 0.59387302, 1.0164871, 0.66945314, 0.79936838, 0.62444973, 0.70182943]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dC) =  [1.4491005, 0.65593028, 0.88323259, 0.94830227, 1.1206784, 0.60011601, 0.97813678, 1.050199]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dY) =  [1.4595816, 0.83947587, 0.92949653, 1.0117557, 1.0885713, 0.56368566, 0.66068125, 1.0802858]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dR) =  [1.3735569, 0.74259305, 0.66833186, 0.79691482, 1.0554605, 0.4479022, 0.64483905, 0.71363926]</t>
+  </si>
+  <si>
+    <t>I(dY,dC) =  [2.06476, 1.1241636, 1.3462296, 1.0861135, 1.4025333, 0.87895584, 0.98673129, 1.1252301]</t>
+  </si>
+  <si>
+    <t>I(dY,dR) =  [2.3113983, 1.5294509, 1.1801753, 1.2010264, 1.7149684, 0.9148581, 0.96739817, 1.0813673]</t>
+  </si>
+  <si>
+    <t>I(dR,dC)  =  [1.879663, 0.81562948, 0.93633938, 0.80112362, 1.2479138, 0.61893654, 0.97393513, 0.75481176]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dC) =  [0.71891069, 0.91588545, 0.85921836, 1.0396044, 1.0775175, 1.0535538, 0.71039629, 1.1987555]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dY) =  [0.7974503, 0.79679704, 0.8963449, 1.1022627, 0.23648787, 0.20767379, 0.35809302, 0.590873]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dR) =  [0.6668725, 0.7147975, 0.83108139, 0.87614727, 0.82809758, 0.760355, 0.34302092, 0.47478199]</t>
+  </si>
+  <si>
+    <t>I(dY,dC) =  [1.2815011, 0.83638787, 1.8541901, 1.2255092, 0.20326519, 0.20543194, 0.47588563, 0.54256654]</t>
+  </si>
+  <si>
+    <t>I(dY,dR) =  [1.4720089, 1.1319599, 1.8885477, 1.2620108, 0.23605609, 0.21198583, 0.25731039, 0.24285603]</t>
+  </si>
+  <si>
+    <t>I(dR,dC)  =  [1.2804503, 0.70292878, 1.7688484, 1.0705197, 1.5135996, 0.94624925, 0.38106441, 0.39629102]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dC) =  [0.90427613, 0.93142748, 1.2966068, 1.2036741, 0.97787905, 1.0503168, 0.48604894, 0.99464893]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dY) =  [0.95078397, 0.99571371, 0.64847755, 0.72858882, 0.69893146, 1.0798419, 0.47326756, 1.1796479]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dR) =  [0.67492604, 0.79992509, 0.62081718, 0.59607005, 0.64422607, 0.71176362, 0.48756123, 0.98182726]</t>
+  </si>
+  <si>
+    <t>I(dY,dC) =  [1.3458748, 1.0858555, 0.82668853, 0.73659801, 1.1022789, 1.1256039, 1.3414803, 1.3204684]</t>
+  </si>
+  <si>
+    <t>I(dY,dR) =  [1.1792865, 1.2007685, 2.0141494, 1.6427176, 1.0290389, 1.0813673, 1.5403097, 1.3869014]</t>
+  </si>
+  <si>
+    <t>I(dR,dC)  =  [0.93580532, 0.80112362, 0.7848475, 0.63071346, 0.97357988, 0.75589538, 1.1140532, 0.89000392]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dC) =  [1.1464512, 0.77161884, 0.8985157, 0.99410748, 0.7492063, 0.588673, 0.84207463, 0.5446074]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dY) =  [1.0933833, 1.1316028, 0.75964403, 0.86934662, 0.78483224, 1.2370002, 0.74090791, 0.66608453]</t>
+  </si>
+  <si>
+    <t>I(dlogOD,dR) =  [1.1288004, 1.0064623, 0.86690092, 0.82131934, 0.80413222, 0.9700222, 0.74445701, 0.47684479]</t>
+  </si>
+  <si>
+    <t>I(dY,dC) =  [1.5838053, 0.9380939, 1.3163035, 1.4114201, 1.2272103, 0.71509194, 1.3820179, 1.3398511]</t>
+  </si>
+  <si>
+    <t>I(dY,dR) =  [2.2119985, 1.8060856, 1.888346, 1.9642832, 1.5471568, 2.0797031, 1.4603076, 1.7077985]</t>
+  </si>
+  <si>
+    <t>I(dR,dC)  =  [1.6125257, 0.79605889, 1.4419732, 1.2093036, 1.656682, 0.57768106, 1.303936, 0.98468995]</t>
+  </si>
+  <si>
+    <t>0.97813678,</t>
   </si>
 </sst>
 </file>
@@ -787,10 +860,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="B3:B34"/>
+  <dimension ref="B3:E37"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,75 +928,99 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="1" t="s">
-        <v>24</v>
+      <c r="E32" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E33" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="1"/>
+      <c r="E34" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E36" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="E37" s="1" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -963,52 +1060,52 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:B29"/>
+  <dimension ref="B4:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="2:2" ht="15.75" x14ac:dyDescent="0.3">
@@ -1016,82 +1113,112 @@
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1102,132 +1229,162 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:B29"/>
+  <dimension ref="B3:B36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B29" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1237,132 +1394,162 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B27"/>
+  <dimension ref="B2:B34"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B13" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B14" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B15" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B16" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B26" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B27" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -1375,14 +1562,14 @@
   <dimension ref="B4:P130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D120" sqref="D120:O124"/>
+      <selection activeCell="B4" sqref="B4:P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -1390,77 +1577,77 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
         <v>86</v>
-      </c>
-      <c r="J10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
         <v>81</v>
       </c>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>82</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>83</v>
       </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" t="s">
         <v>81</v>
       </c>
-      <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>82</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>83</v>
-      </c>
-      <c r="P11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>3.6868265</v>
@@ -1478,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12">
         <v>2.9523028999999998</v>
@@ -1498,7 +1685,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>3.32463</v>
@@ -1516,7 +1703,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13">
         <v>3.0725625000000001</v>
@@ -1536,7 +1723,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>3.3249848000000002</v>
@@ -1554,7 +1741,7 @@
         <v>3.2762470000000001</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14">
         <v>3.0725625000000001</v>
@@ -1574,7 +1761,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <v>2.9993417</v>
@@ -1592,7 +1779,7 @@
         <v>2.4478230000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15">
         <v>2.3486402000000002</v>
@@ -1612,7 +1799,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>3.6274818999999998</v>
@@ -1630,7 +1817,7 @@
         <v>3.2408483000000001</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16">
         <v>3.2848525</v>
@@ -1650,15 +1837,15 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>1</v>
@@ -1666,77 +1853,77 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" t="s">
         <v>86</v>
-      </c>
-      <c r="J25" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
         <v>81</v>
       </c>
-      <c r="F26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>82</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>83</v>
       </c>
-      <c r="I26" t="s">
-        <v>84</v>
-      </c>
       <c r="K26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" t="s">
         <v>81</v>
       </c>
-      <c r="M26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>82</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>83</v>
-      </c>
-      <c r="P26" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>2.2272449000000001</v>
@@ -1754,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K27">
         <v>2.1128271000000001</v>
@@ -1774,7 +1961,7 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>2.3952298000000001</v>
@@ -1792,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K28">
         <v>2.0611622000000001</v>
@@ -1812,7 +1999,7 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>2.8734679000000001</v>
@@ -1830,7 +2017,7 @@
         <v>2.8029795000000002</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K29">
         <v>2.6842576999999999</v>
@@ -1850,7 +2037,7 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30">
         <v>2.2018914000000001</v>
@@ -1868,7 +2055,7 @@
         <v>1.8748384</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K30">
         <v>1.5518432</v>
@@ -1888,7 +2075,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <v>2.5340986000000001</v>
@@ -1906,7 +2093,7 @@
         <v>2.4999402000000002</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K31">
         <v>2.1532496999999999</v>
@@ -1926,15 +2113,15 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>2</v>
@@ -1942,77 +2129,77 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40" t="s">
         <v>86</v>
-      </c>
-      <c r="J40" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s">
         <v>81</v>
       </c>
-      <c r="F41" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>82</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>83</v>
       </c>
-      <c r="I41" t="s">
-        <v>84</v>
-      </c>
       <c r="K41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L41" t="s">
+        <v>80</v>
+      </c>
+      <c r="M41" t="s">
+        <v>78</v>
+      </c>
+      <c r="N41" t="s">
         <v>81</v>
       </c>
-      <c r="M41" t="s">
-        <v>79</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>82</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>83</v>
-      </c>
-      <c r="P41" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42">
         <v>1.6220665000000001</v>
@@ -2030,7 +2217,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K42">
         <v>1.8281392999999999</v>
@@ -2050,7 +2237,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <v>1.9784975</v>
@@ -2068,7 +2255,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K43">
         <v>1.986707</v>
@@ -2088,7 +2275,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <v>1.9787551999999999</v>
@@ -2106,7 +2293,7 @@
         <v>1.9347668</v>
       </c>
       <c r="J44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K44">
         <v>1.986707</v>
@@ -2126,7 +2313,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45">
         <v>1.7178407</v>
@@ -2144,7 +2331,7 @@
         <v>1.4622120999999999</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K45">
         <v>1.5122523000000001</v>
@@ -2164,7 +2351,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46">
         <v>2.0436766</v>
@@ -2182,7 +2369,7 @@
         <v>1.8588305000000001</v>
       </c>
       <c r="J46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K46">
         <v>2.3467584000000001</v>
@@ -2202,15 +2389,15 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>3</v>
@@ -2218,77 +2405,77 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J55" t="s">
         <v>86</v>
-      </c>
-      <c r="J55" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s">
         <v>81</v>
       </c>
-      <c r="F56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>82</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>83</v>
       </c>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
       <c r="K56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L56" t="s">
+        <v>80</v>
+      </c>
+      <c r="M56" t="s">
+        <v>78</v>
+      </c>
+      <c r="N56" t="s">
         <v>81</v>
       </c>
-      <c r="M56" t="s">
-        <v>79</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>82</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>83</v>
-      </c>
-      <c r="P56" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57">
         <v>1.3754282</v>
@@ -2306,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K57">
         <v>1.422852</v>
@@ -2326,7 +2513,7 @@
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58">
         <v>2.1445785000000002</v>
@@ -2344,7 +2531,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K58">
         <v>1.8714093999999999</v>
@@ -2364,7 +2551,7 @@
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59">
         <v>2.1453435000000001</v>
@@ -2382,7 +2569,7 @@
         <v>1.7359374000000001</v>
       </c>
       <c r="J59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K59">
         <v>1.9129039999999999</v>
@@ -2402,7 +2589,7 @@
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60">
         <v>1.5273327999999999</v>
@@ -2420,7 +2607,7 @@
         <v>1.2879255000000001</v>
       </c>
       <c r="J60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K60">
         <v>1.21668</v>
@@ -2440,7 +2627,7 @@
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61">
         <v>1.4154834999999999</v>
@@ -2458,7 +2645,7 @@
         <v>1.7805407</v>
       </c>
       <c r="J61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K61">
         <v>1.4787672000000001</v>
@@ -2478,15 +2665,15 @@
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>4</v>
@@ -2494,77 +2681,77 @@
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
+        <v>85</v>
+      </c>
+      <c r="J71" t="s">
         <v>86</v>
-      </c>
-      <c r="J71" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s">
         <v>81</v>
       </c>
-      <c r="F72" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>82</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>83</v>
       </c>
-      <c r="I72" t="s">
-        <v>84</v>
-      </c>
       <c r="K72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L72" t="s">
+        <v>80</v>
+      </c>
+      <c r="M72" t="s">
+        <v>78</v>
+      </c>
+      <c r="N72" t="s">
         <v>81</v>
       </c>
-      <c r="M72" t="s">
-        <v>79</v>
-      </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>82</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>83</v>
-      </c>
-      <c r="P72" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D73">
         <v>1.0280132</v>
@@ -2582,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K73">
         <v>1.1236390999999999</v>
@@ -2602,7 +2789,7 @@
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74">
         <v>1.1861896999999999</v>
@@ -2620,7 +2807,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K74">
         <v>1.3209124000000001</v>
@@ -2640,7 +2827,7 @@
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75">
         <v>1.3138156000000001</v>
@@ -2658,7 +2845,7 @@
         <v>1.3358798000000001</v>
       </c>
       <c r="J75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K75">
         <v>1.4879583999999999</v>
@@ -2678,7 +2865,7 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76">
         <v>1.2872752999999999</v>
@@ -2696,7 +2883,7 @@
         <v>1.0932093000000001</v>
       </c>
       <c r="J76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K76">
         <v>1.1263428</v>
@@ -2716,7 +2903,7 @@
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D77">
         <v>1.2770319000000001</v>
@@ -2734,7 +2921,7 @@
         <v>1.2656521999999999</v>
       </c>
       <c r="J77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K77">
         <v>1.1107163</v>
@@ -2754,15 +2941,15 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="81" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C81" s="1" t="s">
         <v>5</v>
@@ -2770,77 +2957,77 @@
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
+        <v>85</v>
+      </c>
+      <c r="J86" t="s">
         <v>86</v>
-      </c>
-      <c r="J86" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E87" t="s">
+        <v>80</v>
+      </c>
+      <c r="F87" t="s">
+        <v>78</v>
+      </c>
+      <c r="G87" t="s">
         <v>81</v>
       </c>
-      <c r="F87" t="s">
-        <v>79</v>
-      </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>82</v>
       </c>
-      <c r="H87" t="s">
+      <c r="I87" t="s">
         <v>83</v>
       </c>
-      <c r="I87" t="s">
-        <v>84</v>
-      </c>
       <c r="K87" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L87" t="s">
+        <v>80</v>
+      </c>
+      <c r="M87" t="s">
+        <v>78</v>
+      </c>
+      <c r="N87" t="s">
         <v>81</v>
       </c>
-      <c r="M87" t="s">
-        <v>79</v>
-      </c>
-      <c r="N87" t="s">
+      <c r="O87" t="s">
         <v>82</v>
       </c>
-      <c r="O87" t="s">
+      <c r="P87" t="s">
         <v>83</v>
-      </c>
-      <c r="P87" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D88">
         <v>0.74088478000000002</v>
@@ -2858,7 +3045,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K88">
         <v>0.83678912999999999</v>
@@ -2878,7 +3065,7 @@
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D89">
         <v>1.368619</v>
@@ -2896,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K89">
         <v>1.1952442999999999</v>
@@ -2916,7 +3103,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D90">
         <v>1.6036606</v>
@@ -2934,7 +3121,7 @@
         <v>1.1972742000000001</v>
       </c>
       <c r="J90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K90">
         <v>1.4804807</v>
@@ -2954,7 +3141,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D91">
         <v>1.0896001</v>
@@ -2972,7 +3159,7 @@
         <v>0.93409920000000002</v>
       </c>
       <c r="J91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K91">
         <v>0.84858274</v>
@@ -2992,7 +3179,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D92">
         <v>0.84959077999999999</v>
@@ -3010,7 +3197,7 @@
         <v>1.1437869000000001</v>
       </c>
       <c r="J92" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K92">
         <v>0.83996534</v>
@@ -3030,15 +3217,15 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J93" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="97" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>6</v>
@@ -3046,77 +3233,77 @@
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="102" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
+        <v>85</v>
+      </c>
+      <c r="J102" t="s">
         <v>86</v>
-      </c>
-      <c r="J102" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E103" t="s">
+        <v>80</v>
+      </c>
+      <c r="F103" t="s">
+        <v>78</v>
+      </c>
+      <c r="G103" t="s">
         <v>81</v>
       </c>
-      <c r="F103" t="s">
-        <v>79</v>
-      </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>82</v>
       </c>
-      <c r="H103" t="s">
+      <c r="I103" t="s">
         <v>83</v>
       </c>
-      <c r="I103" t="s">
-        <v>84</v>
-      </c>
       <c r="K103" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L103" t="s">
+        <v>80</v>
+      </c>
+      <c r="M103" t="s">
+        <v>78</v>
+      </c>
+      <c r="N103" t="s">
         <v>81</v>
       </c>
-      <c r="M103" t="s">
-        <v>79</v>
-      </c>
-      <c r="N103" t="s">
+      <c r="O103" t="s">
         <v>82</v>
       </c>
-      <c r="O103" t="s">
+      <c r="P103" t="s">
         <v>83</v>
-      </c>
-      <c r="P103" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D104">
         <v>0.84694433000000002</v>
@@ -3134,7 +3321,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K104">
         <v>0.74169969999999996</v>
@@ -3154,7 +3341,7 @@
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D105">
         <v>1.3442144</v>
@@ -3172,7 +3359,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K105">
         <v>1.1511941000000001</v>
@@ -3192,7 +3379,7 @@
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D106">
         <v>1.3444723999999999</v>
@@ -3210,7 +3397,7 @@
         <v>1.0822806</v>
       </c>
       <c r="J106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K106">
         <v>1.1644592</v>
@@ -3230,7 +3417,7 @@
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D107">
         <v>1.2531028</v>
@@ -3248,7 +3435,7 @@
         <v>1.1316638000000001</v>
       </c>
       <c r="J107" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K107">
         <v>0.86321926000000004</v>
@@ -3268,7 +3455,7 @@
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D108">
         <v>1.0285883</v>
@@ -3286,7 +3473,7 @@
         <v>1.2528872</v>
       </c>
       <c r="J108" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K108">
         <v>0.87937832000000005</v>
@@ -3306,16 +3493,16 @@
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J109" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="111" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>7</v>
@@ -3323,77 +3510,77 @@
     </row>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="118" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
+        <v>85</v>
+      </c>
+      <c r="J118" t="s">
         <v>86</v>
-      </c>
-      <c r="J118" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E119" t="s">
+        <v>80</v>
+      </c>
+      <c r="F119" t="s">
+        <v>78</v>
+      </c>
+      <c r="G119" t="s">
         <v>81</v>
       </c>
-      <c r="F119" t="s">
-        <v>79</v>
-      </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>82</v>
       </c>
-      <c r="H119" t="s">
+      <c r="I119" t="s">
         <v>83</v>
       </c>
-      <c r="I119" t="s">
-        <v>84</v>
-      </c>
       <c r="K119" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L119" t="s">
+        <v>80</v>
+      </c>
+      <c r="M119" t="s">
+        <v>78</v>
+      </c>
+      <c r="N119" t="s">
         <v>81</v>
       </c>
-      <c r="M119" t="s">
-        <v>79</v>
-      </c>
-      <c r="N119" t="s">
+      <c r="O119" t="s">
         <v>82</v>
       </c>
-      <c r="O119" t="s">
+      <c r="P119" t="s">
         <v>83</v>
-      </c>
-      <c r="P119" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D120">
         <v>0.49553299000000001</v>
@@ -3411,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K120">
         <v>0.36818218000000003</v>
@@ -3431,7 +3618,7 @@
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D121">
         <v>0.82133579000000001</v>
@@ -3449,7 +3636,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K121">
         <v>0.79041958000000001</v>
@@ -3469,7 +3656,7 @@
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D122">
         <v>0.85749531000000001</v>
@@ -3487,7 +3674,7 @@
         <v>0.72142649000000003</v>
       </c>
       <c r="J122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K122">
         <v>0.87028837000000003</v>
@@ -3507,7 +3694,7 @@
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D123">
         <v>0.86987161999999996</v>
@@ -3525,7 +3712,7 @@
         <v>0.73879623000000005</v>
       </c>
       <c r="J123" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K123">
         <v>0.59759139999999999</v>
@@ -3545,7 +3732,7 @@
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D124">
         <v>0.54588985000000001</v>
@@ -3563,7 +3750,7 @@
         <v>0.75269841999999998</v>
       </c>
       <c r="J124" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K124">
         <v>0.39556788999999998</v>
@@ -3583,10 +3770,10 @@
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J125" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="127" spans="2:16" x14ac:dyDescent="0.25">
@@ -3618,7 +3805,7 @@
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
@@ -3626,77 +3813,77 @@
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
         <v>86</v>
-      </c>
-      <c r="J10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
         <v>81</v>
       </c>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>82</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>83</v>
       </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
       <c r="K11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" t="s">
         <v>81</v>
       </c>
-      <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>82</v>
       </c>
-      <c r="O11" t="s">
+      <c r="P11" t="s">
         <v>83</v>
-      </c>
-      <c r="P11" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D12">
         <v>3.6212411000000002</v>
@@ -3714,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K12">
         <v>2.7301123</v>
@@ -3734,7 +3921,7 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13">
         <v>2.5908380000000002</v>
@@ -3752,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13">
         <v>2.3645166999999998</v>
@@ -3772,7 +3959,7 @@
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14">
         <v>2.5900729</v>
@@ -3790,7 +3977,7 @@
         <v>2.9480982</v>
       </c>
       <c r="J14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K14">
         <v>2.7333189999999998</v>
@@ -3810,7 +3997,7 @@
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D15">
         <v>2.8437486000000001</v>
@@ -3828,7 +4015,7 @@
         <v>2.4811730000000001</v>
       </c>
       <c r="J15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K15">
         <v>2.1776111</v>
@@ -3848,7 +4035,7 @@
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16">
         <v>3.6696444000000001</v>
@@ -3866,7 +4053,7 @@
         <v>3.4681134</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K16">
         <v>3.1125357</v>
@@ -3886,15 +4073,15 @@
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>9</v>
@@ -3902,77 +4089,77 @@
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" t="s">
         <v>86</v>
-      </c>
-      <c r="J25" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
         <v>81</v>
       </c>
-      <c r="F26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>82</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>83</v>
       </c>
-      <c r="I26" t="s">
-        <v>84</v>
-      </c>
       <c r="K26" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" t="s">
         <v>81</v>
       </c>
-      <c r="M26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>82</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P26" t="s">
         <v>83</v>
-      </c>
-      <c r="P26" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>2.2476845000000001</v>
@@ -3990,7 +4177,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K27">
         <v>1.9875195000000001</v>
@@ -4010,7 +4197,7 @@
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>1.9222751</v>
@@ -4028,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K28">
         <v>1.5675724</v>
@@ -4048,7 +4235,7 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>2.2637</v>
@@ -4066,7 +4253,7 @@
         <v>2.460537</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K29">
         <v>2.4045378999999998</v>
@@ -4086,7 +4273,7 @@
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D30">
         <v>2.1768760999999999</v>
@@ -4104,7 +4291,7 @@
         <v>1.8972981</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K30">
         <v>1.4628136</v>
@@ -4124,7 +4311,7 @@
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D31">
         <v>2.5408439999999999</v>
@@ -4142,7 +4329,7 @@
         <v>2.7236563999999999</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K31">
         <v>2.1060734000000001</v>
@@ -4162,15 +4349,15 @@
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J32" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>10</v>
@@ -4178,77 +4365,77 @@
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="40" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
+        <v>85</v>
+      </c>
+      <c r="J40" t="s">
         <v>86</v>
-      </c>
-      <c r="J40" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="41" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" t="s">
         <v>81</v>
       </c>
-      <c r="F41" t="s">
-        <v>79</v>
-      </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>82</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>83</v>
       </c>
-      <c r="I41" t="s">
-        <v>84</v>
-      </c>
       <c r="K41" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L41" t="s">
+        <v>80</v>
+      </c>
+      <c r="M41" t="s">
+        <v>78</v>
+      </c>
+      <c r="N41" t="s">
         <v>81</v>
       </c>
-      <c r="M41" t="s">
-        <v>79</v>
-      </c>
-      <c r="N41" t="s">
+      <c r="O41" t="s">
         <v>82</v>
       </c>
-      <c r="O41" t="s">
+      <c r="P41" t="s">
         <v>83</v>
-      </c>
-      <c r="P41" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D42">
         <v>1.7415780999999999</v>
@@ -4266,7 +4453,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K42">
         <v>1.9144828</v>
@@ -4286,7 +4473,7 @@
     </row>
     <row r="43" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D43">
         <v>1.6542678</v>
@@ -4304,7 +4491,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K43">
         <v>1.5630085</v>
@@ -4324,7 +4511,7 @@
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D44">
         <v>1.6542675</v>
@@ -4342,7 +4529,7 @@
         <v>1.8340452</v>
       </c>
       <c r="J44" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K44">
         <v>1.9235628</v>
@@ -4362,7 +4549,7 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D45">
         <v>1.5632982</v>
@@ -4380,7 +4567,7 @@
         <v>1.2599909</v>
       </c>
       <c r="J45" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K45">
         <v>1.4746823</v>
@@ -4400,7 +4587,7 @@
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D46">
         <v>2.0571187000000002</v>
@@ -4418,7 +4605,7 @@
         <v>2.1641773999999998</v>
       </c>
       <c r="J46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K46">
         <v>2.3164767999999998</v>
@@ -4438,15 +4625,15 @@
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J47" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="50" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>11</v>
@@ -4454,77 +4641,77 @@
     </row>
     <row r="51" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
+        <v>85</v>
+      </c>
+      <c r="J55" t="s">
         <v>86</v>
-      </c>
-      <c r="J55" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="56" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E56" t="s">
+        <v>80</v>
+      </c>
+      <c r="F56" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" t="s">
         <v>81</v>
       </c>
-      <c r="F56" t="s">
-        <v>79</v>
-      </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>82</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>83</v>
       </c>
-      <c r="I56" t="s">
-        <v>84</v>
-      </c>
       <c r="K56" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L56" t="s">
+        <v>80</v>
+      </c>
+      <c r="M56" t="s">
+        <v>78</v>
+      </c>
+      <c r="N56" t="s">
         <v>81</v>
       </c>
-      <c r="M56" t="s">
-        <v>79</v>
-      </c>
-      <c r="N56" t="s">
+      <c r="O56" t="s">
         <v>82</v>
       </c>
-      <c r="O56" t="s">
+      <c r="P56" t="s">
         <v>83</v>
-      </c>
-      <c r="P56" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="57" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D57">
         <v>1.3098428</v>
@@ -4542,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K57">
         <v>1.2006616999999999</v>
@@ -4562,7 +4749,7 @@
     </row>
     <row r="58" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D58">
         <v>1.4107859</v>
@@ -4580,7 +4767,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K58">
         <v>1.1633636999999999</v>
@@ -4600,7 +4787,7 @@
     </row>
     <row r="59" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D59">
         <v>1.4104311</v>
@@ -4618,7 +4805,7 @@
         <v>1.4077883</v>
       </c>
       <c r="J59" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K59">
         <v>1.5736606</v>
@@ -4638,7 +4825,7 @@
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D60">
         <v>1.3717395999999999</v>
@@ -4656,7 +4843,7 @@
         <v>1.321275</v>
       </c>
       <c r="J60" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K60">
         <v>1.0456502000000001</v>
@@ -4676,7 +4863,7 @@
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D61">
         <v>1.4576458999999999</v>
@@ -4694,7 +4881,7 @@
         <v>2.0078065</v>
       </c>
       <c r="J61" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K61">
         <v>1.3064503999999999</v>
@@ -4714,15 +4901,15 @@
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J62" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>12</v>
@@ -4730,77 +4917,77 @@
     </row>
     <row r="67" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="71" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
+        <v>85</v>
+      </c>
+      <c r="J71" t="s">
         <v>86</v>
-      </c>
-      <c r="J71" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E72" t="s">
+        <v>80</v>
+      </c>
+      <c r="F72" t="s">
+        <v>78</v>
+      </c>
+      <c r="G72" t="s">
         <v>81</v>
       </c>
-      <c r="F72" t="s">
-        <v>79</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>82</v>
       </c>
-      <c r="H72" t="s">
+      <c r="I72" t="s">
         <v>83</v>
       </c>
-      <c r="I72" t="s">
-        <v>84</v>
-      </c>
       <c r="K72" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L72" t="s">
+        <v>80</v>
+      </c>
+      <c r="M72" t="s">
+        <v>78</v>
+      </c>
+      <c r="N72" t="s">
         <v>81</v>
       </c>
-      <c r="M72" t="s">
-        <v>79</v>
-      </c>
-      <c r="N72" t="s">
+      <c r="O72" t="s">
         <v>82</v>
       </c>
-      <c r="O72" t="s">
+      <c r="P72" t="s">
         <v>83</v>
-      </c>
-      <c r="P72" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="73" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D73">
         <v>1.1032743</v>
@@ -4818,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K73">
         <v>0.97185469000000002</v>
@@ -4838,7 +5025,7 @@
     </row>
     <row r="74" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D74">
         <v>0.77808332000000002</v>
@@ -4856,7 +5043,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K74">
         <v>0.73455714999999999</v>
@@ -4876,7 +5063,7 @@
     </row>
     <row r="75" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D75">
         <v>1.1047697000000001</v>
@@ -4894,7 +5081,7 @@
         <v>1.1452513</v>
       </c>
       <c r="J75" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K75">
         <v>1.4648576</v>
@@ -4914,7 +5101,7 @@
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D76">
         <v>1.243587</v>
@@ -4932,7 +5119,7 @@
         <v>1.0111813999999999</v>
       </c>
       <c r="J76" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K76">
         <v>1.074873</v>
@@ -4952,7 +5139,7 @@
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D77">
         <v>1.2501764</v>
@@ -4970,7 +5157,7 @@
         <v>1.4292159</v>
       </c>
       <c r="J77" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K77">
         <v>1.1949487000000001</v>
@@ -4990,15 +5177,15 @@
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J78" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="82" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>13</v>
@@ -5006,77 +5193,77 @@
     </row>
     <row r="83" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="87" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
+        <v>85</v>
+      </c>
+      <c r="J87" t="s">
         <v>86</v>
-      </c>
-      <c r="J87" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E88" t="s">
+        <v>80</v>
+      </c>
+      <c r="F88" t="s">
+        <v>78</v>
+      </c>
+      <c r="G88" t="s">
         <v>81</v>
       </c>
-      <c r="F88" t="s">
-        <v>79</v>
-      </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>82</v>
       </c>
-      <c r="H88" t="s">
+      <c r="I88" t="s">
         <v>83</v>
       </c>
-      <c r="I88" t="s">
-        <v>84</v>
-      </c>
       <c r="K88" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L88" t="s">
+        <v>80</v>
+      </c>
+      <c r="M88" t="s">
+        <v>78</v>
+      </c>
+      <c r="N88" t="s">
         <v>81</v>
       </c>
-      <c r="M88" t="s">
-        <v>79</v>
-      </c>
-      <c r="N88" t="s">
+      <c r="O88" t="s">
         <v>82</v>
       </c>
-      <c r="O88" t="s">
+      <c r="P88" t="s">
         <v>83</v>
-      </c>
-      <c r="P88" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="89" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D89">
         <v>0.76132345000000001</v>
@@ -5094,7 +5281,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K89">
         <v>0.71148157000000001</v>
@@ -5114,7 +5301,7 @@
     </row>
     <row r="90" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D90">
         <v>0.89566422000000001</v>
@@ -5132,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K90">
         <v>0.70165443000000005</v>
@@ -5152,7 +5339,7 @@
     </row>
     <row r="91" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D91">
         <v>0.99389315</v>
@@ -5170,7 +5357,7 @@
         <v>0.85483074000000003</v>
       </c>
       <c r="J91" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K91">
         <v>1.2007608000000001</v>
@@ -5190,7 +5377,7 @@
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D92">
         <v>1.0645852</v>
@@ -5208,7 +5395,7 @@
         <v>0.95655917999999995</v>
       </c>
       <c r="J92" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K92">
         <v>0.75955342999999997</v>
@@ -5228,7 +5415,7 @@
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D93">
         <v>0.85633658999999995</v>
@@ -5246,7 +5433,7 @@
         <v>1.3675036</v>
       </c>
       <c r="J93" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K93">
         <v>0.79278802999999998</v>
@@ -5266,15 +5453,15 @@
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J94" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="98" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C98" s="1" t="s">
         <v>14</v>
@@ -5282,77 +5469,77 @@
     </row>
     <row r="99" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="100" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="101" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="103" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
+        <v>85</v>
+      </c>
+      <c r="J103" t="s">
         <v>86</v>
-      </c>
-      <c r="J103" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="104" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E104" t="s">
+        <v>80</v>
+      </c>
+      <c r="F104" t="s">
+        <v>78</v>
+      </c>
+      <c r="G104" t="s">
         <v>81</v>
       </c>
-      <c r="F104" t="s">
-        <v>79</v>
-      </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>82</v>
       </c>
-      <c r="H104" t="s">
+      <c r="I104" t="s">
         <v>83</v>
       </c>
-      <c r="I104" t="s">
-        <v>84</v>
-      </c>
       <c r="K104" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L104" t="s">
+        <v>80</v>
+      </c>
+      <c r="M104" t="s">
+        <v>78</v>
+      </c>
+      <c r="N104" t="s">
         <v>81</v>
       </c>
-      <c r="M104" t="s">
-        <v>79</v>
-      </c>
-      <c r="N104" t="s">
+      <c r="O104" t="s">
         <v>82</v>
       </c>
-      <c r="O104" t="s">
+      <c r="P104" t="s">
         <v>83</v>
-      </c>
-      <c r="P104" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="105" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D105">
         <v>0.96645546000000004</v>
@@ -5370,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K105">
         <v>0.82804202999999998</v>
@@ -5390,7 +5577,7 @@
     </row>
     <row r="106" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D106">
         <v>1.0199852</v>
@@ -5408,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K106">
         <v>0.72749567000000004</v>
@@ -5428,7 +5615,7 @@
     </row>
     <row r="107" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D107">
         <v>1.0199852</v>
@@ -5446,7 +5633,7 @@
         <v>0.98155928000000003</v>
       </c>
       <c r="J107" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K107">
         <v>1.101315</v>
@@ -5466,7 +5653,7 @@
     </row>
     <row r="108" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D108">
         <v>1.0985602999999999</v>
@@ -5484,7 +5671,7 @@
         <v>0.92944241000000005</v>
       </c>
       <c r="J108" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K108">
         <v>0.82564926000000005</v>
@@ -5504,7 +5691,7 @@
     </row>
     <row r="109" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D109">
         <v>1.0420294000000001</v>
@@ -5522,7 +5709,7 @@
         <v>1.5582342</v>
       </c>
       <c r="J109" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K109">
         <v>0.84909725000000003</v>
@@ -5542,16 +5729,16 @@
     </row>
     <row r="110" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J110" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="112" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>15</v>
@@ -5559,77 +5746,77 @@
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="116" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="117" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="119" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
+        <v>85</v>
+      </c>
+      <c r="J119" t="s">
         <v>86</v>
-      </c>
-      <c r="J119" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="120" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E120" t="s">
+        <v>80</v>
+      </c>
+      <c r="F120" t="s">
+        <v>78</v>
+      </c>
+      <c r="G120" t="s">
         <v>81</v>
       </c>
-      <c r="F120" t="s">
-        <v>79</v>
-      </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>82</v>
       </c>
-      <c r="H120" t="s">
+      <c r="I120" t="s">
         <v>83</v>
       </c>
-      <c r="I120" t="s">
-        <v>84</v>
-      </c>
       <c r="K120" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L120" t="s">
+        <v>80</v>
+      </c>
+      <c r="M120" t="s">
+        <v>78</v>
+      </c>
+      <c r="N120" t="s">
         <v>81</v>
       </c>
-      <c r="M120" t="s">
-        <v>79</v>
-      </c>
-      <c r="N120" t="s">
+      <c r="O120" t="s">
         <v>82</v>
       </c>
-      <c r="O120" t="s">
+      <c r="P120" t="s">
         <v>83</v>
-      </c>
-      <c r="P120" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="121" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D121">
         <v>0.50811434</v>
@@ -5647,7 +5834,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K121">
         <v>0.37243651999999999</v>
@@ -5667,7 +5854,7 @@
     </row>
     <row r="122" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D122">
         <v>0.65213346000000005</v>
@@ -5685,7 +5872,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K122">
         <v>0.44430493999999998</v>
@@ -5705,7 +5892,7 @@
     </row>
     <row r="123" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D123">
         <v>0.64844893999999997</v>
@@ -5723,7 +5910,7 @@
         <v>0.53079748000000004</v>
       </c>
       <c r="J123" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K123">
         <v>0.84718609</v>
@@ -5743,7 +5930,7 @@
     </row>
     <row r="124" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D124">
         <v>0.82618283999999997</v>
@@ -5761,7 +5948,7 @@
         <v>0.65676831999999996</v>
       </c>
       <c r="J124" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K124">
         <v>0.54612207000000001</v>
@@ -5781,7 +5968,7 @@
     </row>
     <row r="125" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D125">
         <v>0.51903438999999996</v>
@@ -5799,7 +5986,7 @@
         <v>0.91626167000000003</v>
       </c>
       <c r="J125" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K125">
         <v>0.47980022</v>
@@ -5819,10 +6006,10 @@
     </row>
     <row r="126" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J126" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="128" spans="2:16" x14ac:dyDescent="0.25">
@@ -5846,18 +6033,2259 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:P132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D122" sqref="D122:O126"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>85</v>
+      </c>
+      <c r="J10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>82</v>
+      </c>
+      <c r="P11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12">
+        <v>3.4334183</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12" t="s">
+        <v>76</v>
+      </c>
+      <c r="K12">
+        <v>2.4110415000000001</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13">
+        <v>2.4110415000000001</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>3.5676695999999999</v>
+      </c>
+      <c r="G13">
+        <v>3.1937007999999998</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13" t="s">
+        <v>77</v>
+      </c>
+      <c r="K13">
+        <v>2.6330903000000001</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>2.9162583</v>
+      </c>
+      <c r="N13">
+        <v>2.8930823999999999</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14">
+        <v>3.0311053000000001</v>
+      </c>
+      <c r="E14">
+        <v>2.6330904999999998</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>3.1937007999999998</v>
+      </c>
+      <c r="H14">
+        <v>3.0061879</v>
+      </c>
+      <c r="J14" t="s">
+        <v>77</v>
+      </c>
+      <c r="K14">
+        <v>2.6330904999999998</v>
+      </c>
+      <c r="L14">
+        <v>3.3026748000000001</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2.8938107</v>
+      </c>
+      <c r="O14">
+        <v>3.3468013000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15">
+        <v>2.5512012999999998</v>
+      </c>
+      <c r="E15">
+        <v>2.4090644999999999</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>2.837208</v>
+      </c>
+      <c r="H15">
+        <v>2.4162651999999998</v>
+      </c>
+      <c r="J15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K15">
+        <v>2.4090644999999999</v>
+      </c>
+      <c r="L15">
+        <v>2.9597180000000001</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2.8520172000000001</v>
+      </c>
+      <c r="O15">
+        <v>2.7412863000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16">
+        <v>3.5345018000000001</v>
+      </c>
+      <c r="E16">
+        <v>2.9905895999999998</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>3.3459412999999998</v>
+      </c>
+      <c r="H16">
+        <v>3.1765862</v>
+      </c>
+      <c r="J16" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16">
+        <v>2.9905895999999998</v>
+      </c>
+      <c r="L16">
+        <v>3.4109473000000001</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>1.9083713</v>
+      </c>
+      <c r="O16">
+        <v>3.0855109999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C17" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>85</v>
+      </c>
+      <c r="J25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>76</v>
+      </c>
+      <c r="E26" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" t="s">
+        <v>83</v>
+      </c>
+      <c r="K26" t="s">
+        <v>76</v>
+      </c>
+      <c r="L26" t="s">
+        <v>80</v>
+      </c>
+      <c r="M26" t="s">
+        <v>78</v>
+      </c>
+      <c r="N26" t="s">
+        <v>81</v>
+      </c>
+      <c r="O26" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27">
+        <v>1.9843177999999999</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="J27" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27">
+        <v>1.7551114999999999</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28">
+        <v>2.1478723999999998</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>2.9600138999999999</v>
+      </c>
+      <c r="G28">
+        <v>2.5193004999999999</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="J28" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28">
+        <v>1.6851432</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>2.4832914000000001</v>
+      </c>
+      <c r="N28">
+        <v>2.1649826000000001</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D29">
+        <v>2.6012143999999999</v>
+      </c>
+      <c r="E29">
+        <v>1.8349872</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>2.2158216999999998</v>
+      </c>
+      <c r="H29">
+        <v>2.5201387</v>
+      </c>
+      <c r="J29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K29">
+        <v>2.2052719999999999</v>
+      </c>
+      <c r="L29">
+        <v>2.1788878</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>1.8434938999999999</v>
+      </c>
+      <c r="O29">
+        <v>2.3521523000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30">
+        <v>1.8322906000000001</v>
+      </c>
+      <c r="E30">
+        <v>2.0220041000000002</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>1.75583</v>
+      </c>
+      <c r="H30">
+        <v>1.7058690000000001</v>
+      </c>
+      <c r="J30" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30">
+        <v>1.4931793</v>
+      </c>
+      <c r="L30">
+        <v>1.9201132999999999</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+      <c r="N30">
+        <v>1.7983661</v>
+      </c>
+      <c r="O30">
+        <v>1.5425308</v>
+      </c>
+    </row>
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31">
+        <v>2.3880506000000001</v>
+      </c>
+      <c r="E31">
+        <v>2.360919</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>2.5967349999999998</v>
+      </c>
+      <c r="H31">
+        <v>2.3345115000000001</v>
+      </c>
+      <c r="J31" t="s">
+        <v>79</v>
+      </c>
+      <c r="K31">
+        <v>2.2189708000000001</v>
+      </c>
+      <c r="L31">
+        <v>2.4168400999999999</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>1.3196983</v>
+      </c>
+      <c r="O31">
+        <v>2.5409036</v>
+      </c>
+    </row>
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>84</v>
+      </c>
+      <c r="J32" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="36" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>74</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+      <c r="J41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D42" t="s">
+        <v>76</v>
+      </c>
+      <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" t="s">
+        <v>81</v>
+      </c>
+      <c r="H42" t="s">
+        <v>82</v>
+      </c>
+      <c r="I42" t="s">
+        <v>83</v>
+      </c>
+      <c r="K42" t="s">
+        <v>76</v>
+      </c>
+      <c r="L42" t="s">
+        <v>80</v>
+      </c>
+      <c r="M42" t="s">
+        <v>78</v>
+      </c>
+      <c r="N42" t="s">
+        <v>81</v>
+      </c>
+      <c r="O42" t="s">
+        <v>82</v>
+      </c>
+      <c r="P42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D43">
+        <v>1.7415780999999999</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="J43" t="s">
+        <v>76</v>
+      </c>
+      <c r="K43">
+        <v>1.9144828</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44">
+        <v>1.6542678</v>
+      </c>
+      <c r="E44">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>2.2713725999999999</v>
+      </c>
+      <c r="G44">
+        <v>1.5333958000000001</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="J44" t="s">
+        <v>77</v>
+      </c>
+      <c r="K44">
+        <v>1.5630085</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>1.5603279999999999</v>
+      </c>
+      <c r="N44">
+        <v>1.5435791000000001</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45">
+        <v>1.6542675</v>
+      </c>
+      <c r="E45">
+        <v>1.2929389</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1.5333958000000001</v>
+      </c>
+      <c r="H45">
+        <v>1.8340452</v>
+      </c>
+      <c r="J45" t="s">
+        <v>77</v>
+      </c>
+      <c r="K45">
+        <v>1.9235628</v>
+      </c>
+      <c r="L45">
+        <v>1.6812239</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>1.5428504999999999</v>
+      </c>
+      <c r="O45">
+        <v>1.8609309000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C46" t="s">
+        <v>78</v>
+      </c>
+      <c r="D46">
+        <v>1.5632982</v>
+      </c>
+      <c r="E46">
+        <v>1.068506</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1.3914015</v>
+      </c>
+      <c r="H46">
+        <v>1.2599909</v>
+      </c>
+      <c r="J46" t="s">
+        <v>78</v>
+      </c>
+      <c r="K46">
+        <v>1.4746823</v>
+      </c>
+      <c r="L46">
+        <v>1.2939366999999999</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1.6677725000000001</v>
+      </c>
+      <c r="O46">
+        <v>1.4715695</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D47">
+        <v>2.0571187000000002</v>
+      </c>
+      <c r="E47">
+        <v>2.1684576999999998</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1.8885434000000001</v>
+      </c>
+      <c r="H47">
+        <v>2.1641773999999998</v>
+      </c>
+      <c r="J47" t="s">
+        <v>79</v>
+      </c>
+      <c r="K47">
+        <v>2.3164767999999998</v>
+      </c>
+      <c r="L47">
+        <v>2.2187252000000002</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>2.8051352999999999</v>
+      </c>
+      <c r="O47">
+        <v>2.2645637999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>84</v>
+      </c>
+      <c r="J48" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>72</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>73</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="53" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>74</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D56" t="s">
+        <v>85</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D57" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" t="s">
+        <v>80</v>
+      </c>
+      <c r="F57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s">
+        <v>82</v>
+      </c>
+      <c r="I57" t="s">
+        <v>83</v>
+      </c>
+      <c r="K57" t="s">
+        <v>76</v>
+      </c>
+      <c r="L57" t="s">
+        <v>80</v>
+      </c>
+      <c r="M57" t="s">
+        <v>78</v>
+      </c>
+      <c r="N57" t="s">
+        <v>81</v>
+      </c>
+      <c r="O57" t="s">
+        <v>82</v>
+      </c>
+      <c r="P57" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C58" t="s">
+        <v>76</v>
+      </c>
+      <c r="D58">
+        <v>1.2556555</v>
+      </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="J58" t="s">
+        <v>76</v>
+      </c>
+      <c r="K58">
+        <v>1.4625807</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>0</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59">
+        <v>1.0329769</v>
+      </c>
+      <c r="E59">
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <v>1.4819108999999999</v>
+      </c>
+      <c r="G59">
+        <v>1.3937404</v>
+      </c>
+      <c r="H59">
+        <v>0</v>
+      </c>
+      <c r="J59" t="s">
+        <v>77</v>
+      </c>
+      <c r="K59">
+        <v>1.204035</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>1.6742954000000001</v>
+      </c>
+      <c r="N59">
+        <v>1.3844204</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C60" t="s">
+        <v>77</v>
+      </c>
+      <c r="D60">
+        <v>1.6848752</v>
+      </c>
+      <c r="E60">
+        <v>1.2935524</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>2.0914223000000001</v>
+      </c>
+      <c r="H60">
+        <v>1.6647076999999999</v>
+      </c>
+      <c r="J60" t="s">
+        <v>77</v>
+      </c>
+      <c r="K60">
+        <v>1.5472348</v>
+      </c>
+      <c r="L60">
+        <v>1.7625377</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>1.7682064</v>
+      </c>
+      <c r="O60">
+        <v>2.0263336000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+      <c r="D61">
+        <v>1.2697003</v>
+      </c>
+      <c r="E61">
+        <v>1.0270321</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1.5137851</v>
+      </c>
+      <c r="H61">
+        <v>1.4306540000000001</v>
+      </c>
+      <c r="J61" t="s">
+        <v>78</v>
+      </c>
+      <c r="K61">
+        <v>1.5726769</v>
+      </c>
+      <c r="L61">
+        <v>1.7342086000000001</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>1.7358072</v>
+      </c>
+      <c r="O61">
+        <v>1.6207849999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C62" t="s">
+        <v>79</v>
+      </c>
+      <c r="D62">
+        <v>1.9506965000000001</v>
+      </c>
+      <c r="E62">
+        <v>1.9431309999999999</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>2.1187307999999998</v>
+      </c>
+      <c r="H62">
+        <v>1.7945682999999999</v>
+      </c>
+      <c r="J62" t="s">
+        <v>79</v>
+      </c>
+      <c r="K62">
+        <v>2.0524955</v>
+      </c>
+      <c r="L62">
+        <v>1.9995274999999999</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>1.193279</v>
+      </c>
+      <c r="O62">
+        <v>1.7456590999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C63" t="s">
+        <v>84</v>
+      </c>
+      <c r="J63" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>72</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>73</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>75</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D72" t="s">
+        <v>85</v>
+      </c>
+      <c r="J72" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D73" t="s">
+        <v>76</v>
+      </c>
+      <c r="E73" t="s">
+        <v>80</v>
+      </c>
+      <c r="F73" t="s">
+        <v>78</v>
+      </c>
+      <c r="G73" t="s">
+        <v>81</v>
+      </c>
+      <c r="H73" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73" t="s">
+        <v>83</v>
+      </c>
+      <c r="K73" t="s">
+        <v>76</v>
+      </c>
+      <c r="L73" t="s">
+        <v>80</v>
+      </c>
+      <c r="M73" t="s">
+        <v>78</v>
+      </c>
+      <c r="N73" t="s">
+        <v>81</v>
+      </c>
+      <c r="O73" t="s">
+        <v>82</v>
+      </c>
+      <c r="P73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C74" t="s">
+        <v>76</v>
+      </c>
+      <c r="D74">
+        <v>0.78508568000000001</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="J74" t="s">
+        <v>76</v>
+      </c>
+      <c r="K74">
+        <v>0.76592492999999995</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>0</v>
+      </c>
+      <c r="O74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C75" t="s">
+        <v>77</v>
+      </c>
+      <c r="D75">
+        <v>0.93883132999999996</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1.3735265999999999</v>
+      </c>
+      <c r="G75">
+        <v>1.5119743000000001</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="J75" t="s">
+        <v>77</v>
+      </c>
+      <c r="K75">
+        <v>0.94489288000000005</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>1.6086754999999999</v>
+      </c>
+      <c r="N75">
+        <v>1.0839949</v>
+      </c>
+      <c r="O75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>77</v>
+      </c>
+      <c r="D76">
+        <v>1.0415626</v>
+      </c>
+      <c r="E76">
+        <v>0.74855185000000002</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1.2100549</v>
+      </c>
+      <c r="H76">
+        <v>1.0530386</v>
+      </c>
+      <c r="J76" t="s">
+        <v>77</v>
+      </c>
+      <c r="K76">
+        <v>1.0089722000000001</v>
+      </c>
+      <c r="L76">
+        <v>1.0401100999999999</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>1.0745087</v>
+      </c>
+      <c r="O76">
+        <v>1.3086595999999999</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>78</v>
+      </c>
+      <c r="D77">
+        <v>0.91767502000000001</v>
+      </c>
+      <c r="E77">
+        <v>0.77245522</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>0.99317025999999997</v>
+      </c>
+      <c r="H77">
+        <v>0.92424059000000003</v>
+      </c>
+      <c r="J77" t="s">
+        <v>78</v>
+      </c>
+      <c r="K77">
+        <v>1.0676785</v>
+      </c>
+      <c r="L77">
+        <v>1.2839265</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>1.1214166000000001</v>
+      </c>
+      <c r="O77">
+        <v>0.88898896999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C78" t="s">
+        <v>79</v>
+      </c>
+      <c r="D78">
+        <v>1.1309823999999999</v>
+      </c>
+      <c r="E78">
+        <v>0.98183679999999995</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1.2843846999999999</v>
+      </c>
+      <c r="H78">
+        <v>1.1002235</v>
+      </c>
+      <c r="J78" t="s">
+        <v>79</v>
+      </c>
+      <c r="K78">
+        <v>1.1764383</v>
+      </c>
+      <c r="L78">
+        <v>1.0292068000000001</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>0.71725749999999999</v>
+      </c>
+      <c r="O78">
+        <v>1.0104150999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C79" t="s">
+        <v>84</v>
+      </c>
+      <c r="J79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>72</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>73</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="85" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>74</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="86" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>75</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>85</v>
+      </c>
+      <c r="J88" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>76</v>
+      </c>
+      <c r="E89" t="s">
+        <v>80</v>
+      </c>
+      <c r="F89" t="s">
+        <v>78</v>
+      </c>
+      <c r="G89" t="s">
+        <v>81</v>
+      </c>
+      <c r="H89" t="s">
+        <v>82</v>
+      </c>
+      <c r="I89" t="s">
+        <v>83</v>
+      </c>
+      <c r="K89" t="s">
+        <v>76</v>
+      </c>
+      <c r="L89" t="s">
+        <v>80</v>
+      </c>
+      <c r="M89" t="s">
+        <v>78</v>
+      </c>
+      <c r="N89" t="s">
+        <v>81</v>
+      </c>
+      <c r="O89" t="s">
+        <v>82</v>
+      </c>
+      <c r="P89" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C90" t="s">
+        <v>76</v>
+      </c>
+      <c r="D90">
+        <v>0.77722835999999995</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>76</v>
+      </c>
+      <c r="K90">
+        <v>0.89548492000000002</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>0</v>
+      </c>
+      <c r="N90">
+        <v>0</v>
+      </c>
+      <c r="O90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C91" t="s">
+        <v>77</v>
+      </c>
+      <c r="D91">
+        <v>1.2425828000000001</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1.5128212000000001</v>
+      </c>
+      <c r="G91">
+        <v>1.4882917</v>
+      </c>
+      <c r="H91">
+        <v>0</v>
+      </c>
+      <c r="J91" t="s">
+        <v>77</v>
+      </c>
+      <c r="K91">
+        <v>1.0923676</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <v>1.7441401000000001</v>
+      </c>
+      <c r="N91">
+        <v>1.337307</v>
+      </c>
+      <c r="O91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C92" t="s">
+        <v>77</v>
+      </c>
+      <c r="D92">
+        <v>1.4422836000000001</v>
+      </c>
+      <c r="E92">
+        <v>0.75887488999999997</v>
+      </c>
+      <c r="F92">
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <v>1.3393345000000001</v>
+      </c>
+      <c r="H92">
+        <v>1.2048540000000001</v>
+      </c>
+      <c r="J92" t="s">
+        <v>77</v>
+      </c>
+      <c r="K92">
+        <v>1.2655902000000001</v>
+      </c>
+      <c r="L92">
+        <v>1.1843433000000001</v>
+      </c>
+      <c r="M92">
+        <v>0</v>
+      </c>
+      <c r="N92">
+        <v>1.2430439</v>
+      </c>
+      <c r="O92">
+        <v>1.5530119</v>
+      </c>
+    </row>
+    <row r="93" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C93" t="s">
+        <v>78</v>
+      </c>
+      <c r="D93">
+        <v>0.89900111999999999</v>
+      </c>
+      <c r="E93">
+        <v>0.84366417000000005</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+      <c r="G93">
+        <v>0.87680292000000004</v>
+      </c>
+      <c r="H93">
+        <v>0.81975317000000003</v>
+      </c>
+      <c r="J93" t="s">
+        <v>78</v>
+      </c>
+      <c r="K93">
+        <v>1.1052384</v>
+      </c>
+      <c r="L93">
+        <v>1.2897978000000001</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>1.1476297</v>
+      </c>
+      <c r="O93">
+        <v>0.97857713999999996</v>
+      </c>
+    </row>
+    <row r="94" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C94" t="s">
+        <v>79</v>
+      </c>
+      <c r="D94">
+        <v>1.0973820999999999</v>
+      </c>
+      <c r="E94">
+        <v>0.93298435000000002</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+      <c r="G94">
+        <v>1.0513368000000001</v>
+      </c>
+      <c r="H94">
+        <v>1.040071</v>
+      </c>
+      <c r="J94" t="s">
+        <v>79</v>
+      </c>
+      <c r="K94">
+        <v>1.307847</v>
+      </c>
+      <c r="L94">
+        <v>1.1979561000000001</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>0.79553174999999998</v>
+      </c>
+      <c r="O94">
+        <v>1.2868099</v>
+      </c>
+    </row>
+    <row r="95" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C95" t="s">
+        <v>84</v>
+      </c>
+      <c r="J95" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>72</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>73</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>74</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>75</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>85</v>
+      </c>
+      <c r="J104" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>76</v>
+      </c>
+      <c r="E105" t="s">
+        <v>80</v>
+      </c>
+      <c r="F105" t="s">
+        <v>78</v>
+      </c>
+      <c r="G105" t="s">
+        <v>81</v>
+      </c>
+      <c r="H105" t="s">
+        <v>82</v>
+      </c>
+      <c r="I105" t="s">
+        <v>83</v>
+      </c>
+      <c r="K105" t="s">
+        <v>76</v>
+      </c>
+      <c r="L105" t="s">
+        <v>80</v>
+      </c>
+      <c r="M105" t="s">
+        <v>78</v>
+      </c>
+      <c r="N105" t="s">
+        <v>81</v>
+      </c>
+      <c r="O105" t="s">
+        <v>82</v>
+      </c>
+      <c r="P105" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C106" t="s">
+        <v>76</v>
+      </c>
+      <c r="D106">
+        <v>1.0252714000000001</v>
+      </c>
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <v>0</v>
+      </c>
+      <c r="H106">
+        <v>0</v>
+      </c>
+      <c r="J106" t="s">
+        <v>76</v>
+      </c>
+      <c r="K106">
+        <v>0.91425942999999998</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>0</v>
+      </c>
+      <c r="N106">
+        <v>0</v>
+      </c>
+      <c r="O106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C107" t="s">
+        <v>77</v>
+      </c>
+      <c r="D107">
+        <v>1.2944298000000001</v>
+      </c>
+      <c r="E107">
+        <v>0</v>
+      </c>
+      <c r="F107">
+        <v>1.4843678</v>
+      </c>
+      <c r="G107">
+        <v>1.7106466</v>
+      </c>
+      <c r="H107">
+        <v>0</v>
+      </c>
+      <c r="J107" t="s">
+        <v>77</v>
+      </c>
+      <c r="K107">
+        <v>1.1113667</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107">
+        <v>1.6876268000000001</v>
+      </c>
+      <c r="N107">
+        <v>1.2759442000000001</v>
+      </c>
+      <c r="O107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C108" t="s">
+        <v>77</v>
+      </c>
+      <c r="D108">
+        <v>1.2944298000000001</v>
+      </c>
+      <c r="E108">
+        <v>0.96817207000000005</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <v>1.5949669</v>
+      </c>
+      <c r="H108">
+        <v>1.2384782000000001</v>
+      </c>
+      <c r="J108" t="s">
+        <v>77</v>
+      </c>
+      <c r="K108">
+        <v>1.0748892000000001</v>
+      </c>
+      <c r="L108">
+        <v>1.2970843000000001</v>
+      </c>
+      <c r="M108">
+        <v>0</v>
+      </c>
+      <c r="N108">
+        <v>1.2762022</v>
+      </c>
+      <c r="O108">
+        <v>1.3896852</v>
+      </c>
+    </row>
+    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C109" t="s">
+        <v>78</v>
+      </c>
+      <c r="D109">
+        <v>0.99652147000000002</v>
+      </c>
+      <c r="E109">
+        <v>0.86727619</v>
+      </c>
+      <c r="F109">
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <v>1.1044598000000001</v>
+      </c>
+      <c r="H109">
+        <v>1.0388215000000001</v>
+      </c>
+      <c r="J109" t="s">
+        <v>78</v>
+      </c>
+      <c r="K109">
+        <v>1.3526758999999999</v>
+      </c>
+      <c r="L109">
+        <v>1.3857803</v>
+      </c>
+      <c r="M109">
+        <v>0</v>
+      </c>
+      <c r="N109">
+        <v>1.3696178999999999</v>
+      </c>
+      <c r="O109">
+        <v>1.1476934000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C110" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110">
+        <v>1.5350804</v>
+      </c>
+      <c r="E110">
+        <v>1.4484987</v>
+      </c>
+      <c r="F110">
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <v>1.2737346000000001</v>
+      </c>
+      <c r="H110">
+        <v>1.3449964999999999</v>
+      </c>
+      <c r="J110" t="s">
+        <v>79</v>
+      </c>
+      <c r="K110">
+        <v>1.5951419</v>
+      </c>
+      <c r="L110">
+        <v>1.470777</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>0.99026060000000005</v>
+      </c>
+      <c r="O110">
+        <v>1.2549458</v>
+      </c>
+    </row>
+    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
+        <v>84</v>
+      </c>
+      <c r="J111" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>72</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>73</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>74</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>75</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D120" t="s">
+        <v>85</v>
+      </c>
+      <c r="J120" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D121" t="s">
+        <v>76</v>
+      </c>
+      <c r="E121" t="s">
+        <v>80</v>
+      </c>
+      <c r="F121" t="s">
+        <v>78</v>
+      </c>
+      <c r="G121" t="s">
+        <v>81</v>
+      </c>
+      <c r="H121" t="s">
+        <v>82</v>
+      </c>
+      <c r="I121" t="s">
+        <v>83</v>
+      </c>
+      <c r="K121" t="s">
+        <v>76</v>
+      </c>
+      <c r="L121" t="s">
+        <v>80</v>
+      </c>
+      <c r="M121" t="s">
+        <v>78</v>
+      </c>
+      <c r="N121" t="s">
+        <v>81</v>
+      </c>
+      <c r="O121" t="s">
+        <v>82</v>
+      </c>
+      <c r="P121" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C122" t="s">
+        <v>76</v>
+      </c>
+      <c r="D122">
+        <v>0.53187609000000002</v>
+      </c>
+      <c r="E122">
+        <v>0</v>
+      </c>
+      <c r="F122">
+        <v>0</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+      <c r="H122">
+        <v>0</v>
+      </c>
+      <c r="J122" t="s">
+        <v>76</v>
+      </c>
+      <c r="K122">
+        <v>0.42687892999999999</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>0</v>
+      </c>
+      <c r="N122">
+        <v>0</v>
+      </c>
+      <c r="O122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C123" t="s">
+        <v>77</v>
+      </c>
+      <c r="D123">
+        <v>0.69529962999999995</v>
+      </c>
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>0.85438727999999997</v>
+      </c>
+      <c r="G123">
+        <v>1.0992679999999999</v>
+      </c>
+      <c r="H123">
+        <v>0</v>
+      </c>
+      <c r="J123" t="s">
+        <v>77</v>
+      </c>
+      <c r="K123">
+        <v>0.68754338999999998</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1.1679926</v>
+      </c>
+      <c r="N123">
+        <v>0.75723742999999999</v>
+      </c>
+      <c r="O123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C124" t="s">
+        <v>77</v>
+      </c>
+      <c r="D124">
+        <v>0.69611835</v>
+      </c>
+      <c r="E124">
+        <v>0.54124450999999996</v>
+      </c>
+      <c r="F124">
+        <v>0</v>
+      </c>
+      <c r="G124">
+        <v>0.85551500000000003</v>
+      </c>
+      <c r="H124">
+        <v>0.72900580999999998</v>
+      </c>
+      <c r="J124" t="s">
+        <v>77</v>
+      </c>
+      <c r="K124">
+        <v>0.65539932000000001</v>
+      </c>
+      <c r="L124">
+        <v>0.70524931000000002</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0.78980826999999998</v>
+      </c>
+      <c r="O124">
+        <v>0.96257018999999999</v>
+      </c>
+    </row>
+    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C125" t="s">
+        <v>78</v>
+      </c>
+      <c r="D125">
+        <v>0.67927313</v>
+      </c>
+      <c r="E125">
+        <v>0.59387301999999997</v>
+      </c>
+      <c r="F125">
+        <v>0</v>
+      </c>
+      <c r="G125">
+        <v>0.66945314</v>
+      </c>
+      <c r="H125">
+        <v>0.62444973000000004</v>
+      </c>
+      <c r="J125" t="s">
+        <v>78</v>
+      </c>
+      <c r="K125">
+        <v>0.85424756999999996</v>
+      </c>
+      <c r="L125">
+        <v>1.0164871</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>0.79936837999999999</v>
+      </c>
+      <c r="O125">
+        <v>0.70182942999999998</v>
+      </c>
+    </row>
+    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C126" t="s">
+        <v>79</v>
+      </c>
+      <c r="D126">
+        <v>0.79368114000000001</v>
+      </c>
+      <c r="E126">
+        <v>0.60543060000000004</v>
+      </c>
+      <c r="F126">
+        <v>0</v>
+      </c>
+      <c r="G126">
+        <v>0.69944954000000004</v>
+      </c>
+      <c r="H126">
+        <v>0.64898204999999998</v>
+      </c>
+      <c r="J126" t="s">
+        <v>79</v>
+      </c>
+      <c r="K126">
+        <v>0.86345004999999997</v>
+      </c>
+      <c r="L126">
+        <v>0.71060562000000005</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0.55590152999999998</v>
+      </c>
+      <c r="O126">
+        <v>0.65848255</v>
+      </c>
+    </row>
+    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C127" t="s">
+        <v>84</v>
+      </c>
+      <c r="J127" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C132" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:P97"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92:O96"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:16" x14ac:dyDescent="0.25">
@@ -5865,7 +8293,7 @@
         <v>74</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
@@ -5873,61 +8301,91 @@
         <v>75</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>65</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
+        <v>85</v>
+      </c>
+      <c r="J9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="J10" t="s">
-        <v>87</v>
+        <v>76</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H10" t="s">
+        <v>82</v>
+      </c>
+      <c r="I10" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" t="s">
+        <v>76</v>
+      </c>
+      <c r="L10" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>82</v>
+      </c>
+      <c r="P10" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D11" t="s">
-        <v>77</v>
-      </c>
-      <c r="E11" t="s">
-        <v>81</v>
-      </c>
-      <c r="F11" t="s">
-        <v>79</v>
-      </c>
-      <c r="G11" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
-      </c>
-      <c r="K11" t="s">
-        <v>77</v>
-      </c>
-      <c r="L11" t="s">
-        <v>81</v>
-      </c>
-      <c r="M11" t="s">
-        <v>79</v>
-      </c>
-      <c r="N11" t="s">
-        <v>82</v>
-      </c>
-      <c r="O11" t="s">
-        <v>83</v>
-      </c>
-      <c r="P11" t="s">
-        <v>84</v>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D11">
+        <v>1.4491004999999999</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11" t="s">
+        <v>76</v>
+      </c>
+      <c r="K11">
+        <v>0.65593027999999998</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:16" x14ac:dyDescent="0.25">
@@ -5935,16 +8393,16 @@
         <v>77</v>
       </c>
       <c r="D12">
-        <v>3.4334183</v>
+        <v>0.88323258999999998</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
+        <v>1.1206784000000001</v>
+      </c>
+      <c r="G12" t="s">
+        <v>135</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -5953,16 +8411,16 @@
         <v>77</v>
       </c>
       <c r="K12">
-        <v>2.4110415000000001</v>
+        <v>0.94830227</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.60011601000000003</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.0501990000000001</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -5970,40 +8428,40 @@
     </row>
     <row r="13" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13">
-        <v>2.4110415000000001</v>
+        <v>0.90427612999999996</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1.2966067999999999</v>
       </c>
       <c r="F13">
-        <v>3.5676695999999999</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>3.1937007999999998</v>
+        <v>0.97787904999999997</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.48604893999999998</v>
       </c>
       <c r="J13" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K13">
-        <v>2.6330903000000001</v>
+        <v>0.93142747999999997</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>1.2036741</v>
       </c>
       <c r="M13">
-        <v>2.9162583</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>2.8930823999999999</v>
+        <v>1.0503168000000001</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.99464892999999999</v>
       </c>
     </row>
     <row r="14" spans="2:16" x14ac:dyDescent="0.25">
@@ -6011,37 +8469,37 @@
         <v>78</v>
       </c>
       <c r="D14">
-        <v>3.0311053000000001</v>
+        <v>0.71891068999999996</v>
       </c>
       <c r="E14">
-        <v>2.6330904999999998</v>
+        <v>0.85921835999999996</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>3.1937007999999998</v>
+        <v>1.0775174999999999</v>
       </c>
       <c r="H14">
-        <v>3.0061879</v>
+        <v>0.71039629000000004</v>
       </c>
       <c r="J14" t="s">
         <v>78</v>
       </c>
       <c r="K14">
-        <v>2.6330904999999998</v>
+        <v>0.91588544999999999</v>
       </c>
       <c r="L14">
-        <v>3.3026748000000001</v>
+        <v>1.0396044</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.8938107</v>
+        <v>1.0535538</v>
       </c>
       <c r="O14">
-        <v>3.3468013000000001</v>
+        <v>1.1987555000000001</v>
       </c>
     </row>
     <row r="15" spans="2:16" x14ac:dyDescent="0.25">
@@ -6049,234 +8507,158 @@
         <v>79</v>
       </c>
       <c r="D15">
-        <v>2.5512012999999998</v>
+        <v>1.1464512</v>
       </c>
       <c r="E15">
-        <v>2.4090644999999999</v>
+        <v>0.89851570000000003</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>2.837208</v>
+        <v>0.74920629999999999</v>
       </c>
       <c r="H15">
-        <v>2.4162651999999998</v>
+        <v>0.84207463000000005</v>
       </c>
       <c r="J15" t="s">
         <v>79</v>
       </c>
       <c r="K15">
-        <v>2.4090644999999999</v>
+        <v>0.77161884000000003</v>
       </c>
       <c r="L15">
-        <v>2.9597180000000001</v>
+        <v>0.99410748000000004</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.8520172000000001</v>
+        <v>0.588673</v>
       </c>
       <c r="O15">
-        <v>2.7412863000000001</v>
+        <v>0.54460739999999996</v>
       </c>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C16" t="s">
-        <v>80</v>
-      </c>
-      <c r="D16">
-        <v>3.5345018000000001</v>
-      </c>
-      <c r="E16">
-        <v>2.9905895999999998</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>3.3459412999999998</v>
-      </c>
-      <c r="H16">
-        <v>3.1765862</v>
+        <v>84</v>
       </c>
       <c r="J16" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16">
-        <v>2.9905895999999998</v>
-      </c>
-      <c r="L16">
-        <v>3.4109473000000001</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>1.9083713</v>
-      </c>
-      <c r="O16">
-        <v>3.0855109999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>17</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D25" t="s">
-        <v>86</v>
-      </c>
-      <c r="J25" t="s">
-        <v>87</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>77</v>
-      </c>
-      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="J26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>76</v>
+      </c>
+      <c r="E27" t="s">
+        <v>80</v>
+      </c>
+      <c r="F27" t="s">
+        <v>78</v>
+      </c>
+      <c r="G27" t="s">
         <v>81</v>
       </c>
-      <c r="F26" t="s">
-        <v>79</v>
-      </c>
-      <c r="G26" t="s">
+      <c r="H27" t="s">
         <v>82</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I27" t="s">
         <v>83</v>
       </c>
-      <c r="I26" t="s">
-        <v>84</v>
-      </c>
-      <c r="K26" t="s">
-        <v>77</v>
-      </c>
-      <c r="L26" t="s">
+      <c r="K27" t="s">
+        <v>76</v>
+      </c>
+      <c r="L27" t="s">
+        <v>80</v>
+      </c>
+      <c r="M27" t="s">
+        <v>78</v>
+      </c>
+      <c r="N27" t="s">
         <v>81</v>
       </c>
-      <c r="M26" t="s">
-        <v>79</v>
-      </c>
-      <c r="N26" t="s">
+      <c r="O27" t="s">
         <v>82</v>
       </c>
-      <c r="O26" t="s">
+      <c r="P27" t="s">
         <v>83</v>
-      </c>
-      <c r="P26" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>77</v>
-      </c>
-      <c r="D27">
-        <v>1.9843177999999999</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="J27" t="s">
-        <v>77</v>
-      </c>
-      <c r="K27">
-        <v>1.7551114999999999</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D28">
-        <v>2.1478723999999998</v>
+        <v>1.4595815999999999</v>
       </c>
       <c r="E28">
         <v>0</v>
       </c>
       <c r="F28">
-        <v>2.9600138999999999</v>
+        <v>0</v>
       </c>
       <c r="G28">
-        <v>2.5193004999999999</v>
+        <v>0</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="J28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K28">
-        <v>1.6851432</v>
+        <v>0.83947587000000001</v>
       </c>
       <c r="L28">
         <v>0</v>
       </c>
       <c r="M28">
-        <v>2.4832914000000001</v>
+        <v>0</v>
       </c>
       <c r="N28">
-        <v>2.1649826000000001</v>
+        <v>0</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -6284,275 +8666,272 @@
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D29">
-        <v>2.6012143999999999</v>
+        <v>0.92949652999999999</v>
       </c>
       <c r="E29">
-        <v>1.8349872</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>1.0885712999999999</v>
       </c>
       <c r="G29">
-        <v>2.2158216999999998</v>
+        <v>0.66068125</v>
       </c>
       <c r="H29">
-        <v>2.5201387</v>
+        <v>0</v>
       </c>
       <c r="J29" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K29">
-        <v>2.2052719999999999</v>
+        <v>1.0117556999999999</v>
       </c>
       <c r="L29">
-        <v>2.1788878</v>
+        <v>0</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.56368565999999998</v>
       </c>
       <c r="N29">
-        <v>1.8434938999999999</v>
-      </c>
-      <c r="O29">
-        <v>2.3521523000000002</v>
+        <v>1.0802858</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D30">
-        <v>1.8322906000000001</v>
+        <v>0.95078397000000003</v>
       </c>
       <c r="E30">
-        <v>2.0220041000000002</v>
+        <v>0.64847754999999996</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>1.75583</v>
+        <v>0.69893145999999995</v>
       </c>
       <c r="H30">
-        <v>1.7058690000000001</v>
+        <v>0.47326755999999998</v>
       </c>
       <c r="J30" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K30">
-        <v>1.4931793</v>
+        <v>0.99571370999999997</v>
       </c>
       <c r="L30">
-        <v>1.9201132999999999</v>
+        <v>0.72858882000000003</v>
       </c>
       <c r="M30">
         <v>0</v>
       </c>
       <c r="N30">
-        <v>1.7983661</v>
+        <v>1.0798418999999999</v>
       </c>
       <c r="O30">
-        <v>1.5425308</v>
+        <v>1.1796479</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31">
-        <v>2.3880506000000001</v>
+        <v>0.79745029999999995</v>
       </c>
       <c r="E31">
-        <v>2.360919</v>
+        <v>0.8963449</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>2.5967349999999998</v>
+        <v>0.23648786999999999</v>
       </c>
       <c r="H31">
-        <v>2.3345115000000001</v>
+        <v>0.35809301999999998</v>
       </c>
       <c r="J31" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K31">
-        <v>2.2189708000000001</v>
+        <v>0.79679703999999996</v>
       </c>
       <c r="L31">
-        <v>2.4168400999999999</v>
+        <v>1.1022627</v>
       </c>
       <c r="M31">
         <v>0</v>
       </c>
       <c r="N31">
-        <v>1.3196983</v>
+        <v>0.20767379</v>
       </c>
       <c r="O31">
-        <v>2.5409036</v>
+        <v>0.59087299999999998</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C32" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="D32">
+        <v>1.0933832999999999</v>
+      </c>
+      <c r="E32">
+        <v>0.75964403000000003</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0.78483223999999996</v>
+      </c>
+      <c r="H32">
+        <v>0.74090791</v>
       </c>
       <c r="J32" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="K32">
+        <v>1.1316028</v>
+      </c>
+      <c r="L32">
+        <v>0.86934661999999996</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+      <c r="N32">
+        <v>1.2370002</v>
+      </c>
+      <c r="O32">
+        <v>0.66608453000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>84</v>
+      </c>
+      <c r="J33" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>86</v>
-      </c>
-      <c r="J41" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" t="s">
+        <v>85</v>
+      </c>
+      <c r="J42" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D43" t="s">
+        <v>76</v>
+      </c>
+      <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
+        <v>78</v>
+      </c>
+      <c r="G43" t="s">
         <v>81</v>
       </c>
-      <c r="F42" t="s">
-        <v>79</v>
-      </c>
-      <c r="G42" t="s">
+      <c r="H43" t="s">
         <v>82</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I43" t="s">
         <v>83</v>
       </c>
-      <c r="I42" t="s">
-        <v>84</v>
-      </c>
-      <c r="K42" t="s">
-        <v>77</v>
-      </c>
-      <c r="L42" t="s">
+      <c r="K43" t="s">
+        <v>76</v>
+      </c>
+      <c r="L43" t="s">
+        <v>80</v>
+      </c>
+      <c r="M43" t="s">
+        <v>78</v>
+      </c>
+      <c r="N43" t="s">
         <v>81</v>
       </c>
-      <c r="M42" t="s">
-        <v>79</v>
-      </c>
-      <c r="N42" t="s">
+      <c r="O43" t="s">
         <v>82</v>
       </c>
-      <c r="O42" t="s">
+      <c r="P43" t="s">
         <v>83</v>
-      </c>
-      <c r="P42" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D43">
-        <v>1.7415780999999999</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="J43" t="s">
-        <v>77</v>
-      </c>
-      <c r="K43">
-        <v>1.9144828</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
-      </c>
-      <c r="O43">
-        <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D44">
-        <v>1.6542678</v>
+        <v>1.3735569000000001</v>
       </c>
       <c r="E44">
         <v>0</v>
       </c>
       <c r="F44">
-        <v>2.2713725999999999</v>
+        <v>0</v>
       </c>
       <c r="G44">
-        <v>1.5333958000000001</v>
+        <v>0</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
       <c r="J44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>1.5630085</v>
+        <v>0.74259304999999998</v>
       </c>
       <c r="L44">
         <v>0</v>
       </c>
       <c r="M44">
-        <v>1.5603279999999999</v>
+        <v>0</v>
       </c>
       <c r="N44">
-        <v>1.5435791000000001</v>
+        <v>0</v>
       </c>
       <c r="O44">
         <v>0</v>
@@ -6560,1515 +8939,991 @@
     </row>
     <row r="45" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D45">
-        <v>1.6542675</v>
+        <v>0.66833186</v>
       </c>
       <c r="E45">
-        <v>1.2929389</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1.0554604999999999</v>
       </c>
       <c r="G45">
-        <v>1.5333958000000001</v>
+        <v>0.64483904999999997</v>
       </c>
       <c r="H45">
-        <v>1.8340452</v>
+        <v>0</v>
       </c>
       <c r="J45" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>1.9235628</v>
+        <v>0.79691482000000002</v>
       </c>
       <c r="L45">
-        <v>1.6812239</v>
+        <v>0</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>0.44790219999999997</v>
       </c>
       <c r="N45">
-        <v>1.5428504999999999</v>
+        <v>0.71363926</v>
       </c>
       <c r="O45">
-        <v>1.8609309000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D46">
-        <v>1.5632982</v>
+        <v>0.67492604</v>
       </c>
       <c r="E46">
-        <v>1.068506</v>
+        <v>0.62081717999999997</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>1.3914015</v>
+        <v>0.64422606999999998</v>
       </c>
       <c r="H46">
-        <v>1.2599909</v>
+        <v>0.48756123000000001</v>
       </c>
       <c r="J46" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K46">
-        <v>1.4746823</v>
+        <v>0.79992509000000001</v>
       </c>
       <c r="L46">
-        <v>1.2939366999999999</v>
+        <v>0.59607005000000002</v>
       </c>
       <c r="M46">
         <v>0</v>
       </c>
       <c r="N46">
-        <v>1.6677725000000001</v>
+        <v>0.71176362000000004</v>
       </c>
       <c r="O46">
-        <v>1.4715695</v>
+        <v>0.98182725999999998</v>
       </c>
     </row>
     <row r="47" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D47">
-        <v>2.0571187000000002</v>
+        <v>0.66687249999999998</v>
       </c>
       <c r="E47">
-        <v>2.1684576999999998</v>
+        <v>0.83108139000000003</v>
       </c>
       <c r="F47">
         <v>0</v>
       </c>
       <c r="G47">
-        <v>1.8885434000000001</v>
+        <v>0.82809758</v>
       </c>
       <c r="H47">
-        <v>2.1641773999999998</v>
+        <v>0.34302092000000001</v>
       </c>
       <c r="J47" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K47">
-        <v>2.3164767999999998</v>
+        <v>0.71479749999999997</v>
       </c>
       <c r="L47">
-        <v>2.2187252000000002</v>
+        <v>0.87614727000000003</v>
       </c>
       <c r="M47">
         <v>0</v>
       </c>
       <c r="N47">
-        <v>2.8051352999999999</v>
+        <v>0.760355</v>
       </c>
       <c r="O47">
-        <v>2.2645637999999999</v>
+        <v>0.47478198999999999</v>
       </c>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
-        <v>85</v>
+        <v>79</v>
+      </c>
+      <c r="D48">
+        <v>1.1288004</v>
+      </c>
+      <c r="E48">
+        <v>0.86690091999999996</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0.80413221999999995</v>
+      </c>
+      <c r="H48">
+        <v>0.74445700999999997</v>
       </c>
       <c r="J48" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="51" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>73</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>19</v>
+        <v>79</v>
+      </c>
+      <c r="K48">
+        <v>1.0064622999999999</v>
+      </c>
+      <c r="L48">
+        <v>0.82131933999999995</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>0.97002219999999995</v>
+      </c>
+      <c r="O48">
+        <v>0.47684479000000002</v>
+      </c>
+    </row>
+    <row r="49" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C49" t="s">
+        <v>84</v>
+      </c>
+      <c r="J49" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="53" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>44</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="56" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="55" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D58" t="s">
+        <v>85</v>
+      </c>
+      <c r="J58" t="s">
         <v>86</v>
       </c>
-      <c r="J56" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="57" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D57" t="s">
-        <v>77</v>
-      </c>
-      <c r="E57" t="s">
+    </row>
+    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" t="s">
+        <v>80</v>
+      </c>
+      <c r="F59" t="s">
+        <v>78</v>
+      </c>
+      <c r="G59" t="s">
         <v>81</v>
       </c>
-      <c r="F57" t="s">
-        <v>79</v>
-      </c>
-      <c r="G57" t="s">
+      <c r="H59" t="s">
         <v>82</v>
       </c>
-      <c r="H57" t="s">
+      <c r="I59" t="s">
         <v>83</v>
       </c>
-      <c r="I57" t="s">
-        <v>84</v>
-      </c>
-      <c r="K57" t="s">
-        <v>77</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="K59" t="s">
+        <v>76</v>
+      </c>
+      <c r="L59" t="s">
+        <v>80</v>
+      </c>
+      <c r="M59" t="s">
+        <v>78</v>
+      </c>
+      <c r="N59" t="s">
         <v>81</v>
       </c>
-      <c r="M57" t="s">
-        <v>79</v>
-      </c>
-      <c r="N57" t="s">
+      <c r="O59" t="s">
         <v>82</v>
       </c>
-      <c r="O57" t="s">
+      <c r="P59" t="s">
         <v>83</v>
-      </c>
-      <c r="P57" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="58" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>77</v>
-      </c>
-      <c r="D58">
-        <v>1.2556555</v>
-      </c>
-      <c r="E58">
-        <v>0</v>
-      </c>
-      <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
-      </c>
-      <c r="H58">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>77</v>
-      </c>
-      <c r="K58">
-        <v>1.4625807</v>
-      </c>
-      <c r="L58">
-        <v>0</v>
-      </c>
-      <c r="M58">
-        <v>0</v>
-      </c>
-      <c r="N58">
-        <v>0</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>78</v>
-      </c>
-      <c r="D59">
-        <v>1.0329769</v>
-      </c>
-      <c r="E59">
-        <v>0</v>
-      </c>
-      <c r="F59">
-        <v>1.4819108999999999</v>
-      </c>
-      <c r="G59">
-        <v>1.3937404</v>
-      </c>
-      <c r="H59">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>78</v>
-      </c>
-      <c r="K59">
-        <v>1.204035</v>
-      </c>
-      <c r="L59">
-        <v>0</v>
-      </c>
-      <c r="M59">
-        <v>1.6742954000000001</v>
-      </c>
-      <c r="N59">
-        <v>1.3844204</v>
-      </c>
-      <c r="O59">
-        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D60">
-        <v>1.6848752</v>
+        <v>2.0647600000000002</v>
       </c>
       <c r="E60">
-        <v>1.2935524</v>
+        <v>0</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>2.0914223000000001</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>1.6647076999999999</v>
+        <v>0</v>
       </c>
       <c r="J60" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K60">
-        <v>1.5472348</v>
+        <v>1.1241635999999999</v>
       </c>
       <c r="L60">
-        <v>1.7625377</v>
+        <v>0</v>
       </c>
       <c r="M60">
         <v>0</v>
       </c>
       <c r="N60">
-        <v>1.7682064</v>
+        <v>0</v>
       </c>
       <c r="O60">
-        <v>2.0263336000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D61">
-        <v>1.2697003</v>
+        <v>1.3462296</v>
       </c>
       <c r="E61">
-        <v>1.0270321</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>1.4025333</v>
       </c>
       <c r="G61">
-        <v>1.5137851</v>
+        <v>0.98673129000000004</v>
       </c>
       <c r="H61">
-        <v>1.4306540000000001</v>
+        <v>0</v>
       </c>
       <c r="J61" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K61">
-        <v>1.5726769</v>
+        <v>1.0861135</v>
       </c>
       <c r="L61">
-        <v>1.7342086000000001</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>0.87895584000000004</v>
       </c>
       <c r="N61">
-        <v>1.7358072</v>
+        <v>1.1252301</v>
       </c>
       <c r="O61">
-        <v>1.6207849999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C62" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D62">
-        <v>1.9506965000000001</v>
+        <v>1.3458748</v>
       </c>
       <c r="E62">
-        <v>1.9431309999999999</v>
+        <v>0.82668852999999998</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>2.1187307999999998</v>
+        <v>1.1022789</v>
       </c>
       <c r="H62">
-        <v>1.7945682999999999</v>
+        <v>1.3414803</v>
       </c>
       <c r="J62" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K62">
-        <v>2.0524955</v>
+        <v>1.0858555000000001</v>
       </c>
       <c r="L62">
-        <v>1.9995274999999999</v>
+        <v>0.73659801000000003</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>1.193279</v>
+        <v>1.1256039</v>
       </c>
       <c r="O62">
-        <v>1.7456590999999999</v>
+        <v>1.3204684</v>
       </c>
     </row>
     <row r="63" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C63" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="D63">
+        <v>1.2815011000000001</v>
+      </c>
+      <c r="E63">
+        <v>1.8541901000000001</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>0.20326519000000001</v>
+      </c>
+      <c r="H63">
+        <v>0.47588563</v>
       </c>
       <c r="J63" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>20</v>
+        <v>78</v>
+      </c>
+      <c r="K63">
+        <v>0.83638787000000003</v>
+      </c>
+      <c r="L63">
+        <v>1.2255092000000001</v>
+      </c>
+      <c r="M63">
+        <v>0</v>
+      </c>
+      <c r="N63">
+        <v>0.20543194000000001</v>
+      </c>
+      <c r="O63">
+        <v>0.54256654000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C64" t="s">
+        <v>79</v>
+      </c>
+      <c r="D64">
+        <v>1.5838053000000001</v>
+      </c>
+      <c r="E64">
+        <v>1.3163035000000001</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1.2272103000000001</v>
+      </c>
+      <c r="H64">
+        <v>1.3820178999999999</v>
+      </c>
+      <c r="J64" t="s">
+        <v>79</v>
+      </c>
+      <c r="K64">
+        <v>0.93809390000000004</v>
+      </c>
+      <c r="L64">
+        <v>1.4114201</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0.71509193999999998</v>
+      </c>
+      <c r="O64">
+        <v>1.3398511</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C65" t="s">
+        <v>84</v>
+      </c>
+      <c r="J65" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D72" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D74" t="s">
+        <v>85</v>
+      </c>
+      <c r="J74" t="s">
         <v>86</v>
       </c>
-      <c r="J72" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D73" t="s">
-        <v>77</v>
-      </c>
-      <c r="E73" t="s">
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D75" t="s">
+        <v>76</v>
+      </c>
+      <c r="E75" t="s">
+        <v>80</v>
+      </c>
+      <c r="F75" t="s">
+        <v>78</v>
+      </c>
+      <c r="G75" t="s">
         <v>81</v>
       </c>
-      <c r="F73" t="s">
-        <v>79</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="H75" t="s">
         <v>82</v>
       </c>
-      <c r="H73" t="s">
+      <c r="I75" t="s">
         <v>83</v>
       </c>
-      <c r="I73" t="s">
-        <v>84</v>
-      </c>
-      <c r="K73" t="s">
-        <v>77</v>
-      </c>
-      <c r="L73" t="s">
+      <c r="K75" t="s">
+        <v>76</v>
+      </c>
+      <c r="L75" t="s">
+        <v>80</v>
+      </c>
+      <c r="M75" t="s">
+        <v>78</v>
+      </c>
+      <c r="N75" t="s">
         <v>81</v>
       </c>
-      <c r="M73" t="s">
-        <v>79</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="O75" t="s">
         <v>82</v>
       </c>
-      <c r="O73" t="s">
+      <c r="P75" t="s">
         <v>83</v>
-      </c>
-      <c r="P73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>77</v>
-      </c>
-      <c r="D74">
-        <v>0.78508568000000001</v>
-      </c>
-      <c r="E74">
-        <v>0</v>
-      </c>
-      <c r="F74">
-        <v>0</v>
-      </c>
-      <c r="G74">
-        <v>0</v>
-      </c>
-      <c r="J74" t="s">
-        <v>77</v>
-      </c>
-      <c r="K74">
-        <v>0.76592492999999995</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>0</v>
-      </c>
-      <c r="O74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>78</v>
-      </c>
-      <c r="D75">
-        <v>0.93883132999999996</v>
-      </c>
-      <c r="E75">
-        <v>0</v>
-      </c>
-      <c r="F75">
-        <v>1.3735265999999999</v>
-      </c>
-      <c r="G75">
-        <v>1.5119743000000001</v>
-      </c>
-      <c r="H75">
-        <v>0</v>
-      </c>
-      <c r="J75" t="s">
-        <v>78</v>
-      </c>
-      <c r="K75">
-        <v>0.94489288000000005</v>
-      </c>
-      <c r="L75">
-        <v>0</v>
-      </c>
-      <c r="M75">
-        <v>1.6086754999999999</v>
-      </c>
-      <c r="N75">
-        <v>1.0839949</v>
-      </c>
-      <c r="O75">
-        <v>0</v>
       </c>
     </row>
     <row r="76" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D76">
-        <v>1.0415626</v>
+        <v>2.3113983</v>
       </c>
       <c r="E76">
-        <v>0.74855185000000002</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>1.2100549</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>1.0530386</v>
+        <v>0</v>
       </c>
       <c r="J76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K76">
-        <v>1.0089722000000001</v>
+        <v>1.5294509000000001</v>
       </c>
       <c r="L76">
-        <v>1.0401100999999999</v>
+        <v>0</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>1.0745087</v>
+        <v>0</v>
       </c>
       <c r="O76">
-        <v>1.3086595999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D77">
-        <v>0.91767502000000001</v>
+        <v>1.1801752999999999</v>
       </c>
       <c r="E77">
-        <v>0.77245522</v>
+        <v>0</v>
       </c>
       <c r="F77">
-        <v>0</v>
+        <v>1.7149684000000001</v>
       </c>
       <c r="G77">
-        <v>0.99317025999999997</v>
+        <v>0.96739816999999995</v>
       </c>
       <c r="H77">
-        <v>0.92424059000000003</v>
+        <v>0</v>
       </c>
       <c r="J77" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K77">
-        <v>1.0676785</v>
+        <v>1.2010263999999999</v>
       </c>
       <c r="L77">
-        <v>1.2839265</v>
+        <v>0</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>0.91485810000000001</v>
       </c>
       <c r="N77">
-        <v>1.1214166000000001</v>
+        <v>1.0813672999999999</v>
       </c>
       <c r="O77">
-        <v>0.88898896999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D78">
-        <v>1.1309823999999999</v>
+        <v>1.1792864999999999</v>
       </c>
       <c r="E78">
-        <v>0.98183679999999995</v>
+        <v>2.0141494</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>1.2843846999999999</v>
+        <v>1.0290389</v>
       </c>
       <c r="H78">
-        <v>1.1002235</v>
+        <v>1.5403096999999999</v>
       </c>
       <c r="J78" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K78">
-        <v>1.1764383</v>
+        <v>1.2007684999999999</v>
       </c>
       <c r="L78">
-        <v>1.0292068000000001</v>
+        <v>1.6427176000000001</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>0.71725749999999999</v>
+        <v>1.0813672999999999</v>
       </c>
       <c r="O78">
-        <v>1.0104150999999999</v>
+        <v>1.3869014</v>
       </c>
     </row>
     <row r="79" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C79" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="D79">
+        <v>1.4720089000000001</v>
+      </c>
+      <c r="E79">
+        <v>1.8885476999999999</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0.23605609</v>
+      </c>
+      <c r="H79">
+        <v>0.25731039</v>
       </c>
       <c r="J79" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="83" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B83" t="s">
-        <v>73</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>21</v>
+        <v>78</v>
+      </c>
+      <c r="K79">
+        <v>1.1319599</v>
+      </c>
+      <c r="L79">
+        <v>1.2620108000000001</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>0.21198582999999999</v>
+      </c>
+      <c r="O79">
+        <v>0.24285603</v>
+      </c>
+    </row>
+    <row r="80" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C80" t="s">
+        <v>79</v>
+      </c>
+      <c r="D80">
+        <v>2.2119985</v>
+      </c>
+      <c r="E80">
+        <v>1.8883460000000001</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1.5471568</v>
+      </c>
+      <c r="H80">
+        <v>1.4603075999999999</v>
+      </c>
+      <c r="J80" t="s">
+        <v>79</v>
+      </c>
+      <c r="K80">
+        <v>1.8060856000000001</v>
+      </c>
+      <c r="L80">
+        <v>1.9642831999999999</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>2.0797031000000001</v>
+      </c>
+      <c r="O80">
+        <v>1.7077985</v>
+      </c>
+    </row>
+    <row r="81" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C81" t="s">
+        <v>84</v>
+      </c>
+      <c r="J81" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="85" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>46</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="88" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>75</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>85</v>
+      </c>
+      <c r="J90" t="s">
         <v>86</v>
       </c>
-      <c r="J88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D89" t="s">
-        <v>77</v>
-      </c>
-      <c r="E89" t="s">
+    </row>
+    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>76</v>
+      </c>
+      <c r="E91" t="s">
+        <v>80</v>
+      </c>
+      <c r="F91" t="s">
+        <v>78</v>
+      </c>
+      <c r="G91" t="s">
         <v>81</v>
       </c>
-      <c r="F89" t="s">
-        <v>79</v>
-      </c>
-      <c r="G89" t="s">
+      <c r="H91" t="s">
         <v>82</v>
       </c>
-      <c r="H89" t="s">
+      <c r="I91" t="s">
         <v>83</v>
       </c>
-      <c r="I89" t="s">
-        <v>84</v>
-      </c>
-      <c r="K89" t="s">
-        <v>77</v>
-      </c>
-      <c r="L89" t="s">
+      <c r="K91" t="s">
+        <v>76</v>
+      </c>
+      <c r="L91" t="s">
+        <v>80</v>
+      </c>
+      <c r="M91" t="s">
+        <v>78</v>
+      </c>
+      <c r="N91" t="s">
         <v>81</v>
       </c>
-      <c r="M89" t="s">
-        <v>79</v>
-      </c>
-      <c r="N89" t="s">
+      <c r="O91" t="s">
         <v>82</v>
       </c>
-      <c r="O89" t="s">
+      <c r="P91" t="s">
         <v>83</v>
-      </c>
-      <c r="P89" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="90" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C90" t="s">
-        <v>77</v>
-      </c>
-      <c r="D90">
-        <v>0.77722835999999995</v>
-      </c>
-      <c r="E90">
-        <v>0</v>
-      </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <v>0</v>
-      </c>
-      <c r="H90">
-        <v>0</v>
-      </c>
-      <c r="J90" t="s">
-        <v>77</v>
-      </c>
-      <c r="K90">
-        <v>0.89548492000000002</v>
-      </c>
-      <c r="L90">
-        <v>0</v>
-      </c>
-      <c r="M90">
-        <v>0</v>
-      </c>
-      <c r="N90">
-        <v>0</v>
-      </c>
-      <c r="O90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C91" t="s">
-        <v>78</v>
-      </c>
-      <c r="D91">
-        <v>1.2425828000000001</v>
-      </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
-      <c r="F91">
-        <v>1.5128212000000001</v>
-      </c>
-      <c r="G91">
-        <v>1.4882917</v>
-      </c>
-      <c r="H91">
-        <v>0</v>
-      </c>
-      <c r="J91" t="s">
-        <v>78</v>
-      </c>
-      <c r="K91">
-        <v>1.0923676</v>
-      </c>
-      <c r="L91">
-        <v>0</v>
-      </c>
-      <c r="M91">
-        <v>1.7441401000000001</v>
-      </c>
-      <c r="N91">
-        <v>1.337307</v>
-      </c>
-      <c r="O91">
-        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C92" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D92">
-        <v>1.4422836000000001</v>
+        <v>1.8796630000000001</v>
       </c>
       <c r="E92">
-        <v>0.75887488999999997</v>
+        <v>0</v>
       </c>
       <c r="F92">
         <v>0</v>
       </c>
       <c r="G92">
-        <v>1.3393345000000001</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>1.2048540000000001</v>
+        <v>0</v>
       </c>
       <c r="J92" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K92">
-        <v>1.2655902000000001</v>
+        <v>0.81562948000000002</v>
       </c>
       <c r="L92">
-        <v>1.1843433000000001</v>
+        <v>0</v>
       </c>
       <c r="M92">
         <v>0</v>
       </c>
       <c r="N92">
-        <v>1.2430439</v>
+        <v>0</v>
       </c>
       <c r="O92">
-        <v>1.5530119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C93" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D93">
-        <v>0.89900111999999999</v>
+        <v>0.93633938000000005</v>
       </c>
       <c r="E93">
-        <v>0.84366417000000005</v>
+        <v>0</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>1.2479138000000001</v>
       </c>
       <c r="G93">
-        <v>0.87680292000000004</v>
+        <v>0.97393512999999998</v>
       </c>
       <c r="H93">
-        <v>0.81975317000000003</v>
+        <v>0</v>
       </c>
       <c r="J93" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="K93">
-        <v>1.1052384</v>
+        <v>0.80112362000000004</v>
       </c>
       <c r="L93">
-        <v>1.2897978000000001</v>
+        <v>0</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>0.61893653999999998</v>
       </c>
       <c r="N93">
-        <v>1.1476297</v>
+        <v>0.75481176000000005</v>
       </c>
       <c r="O93">
-        <v>0.97857713999999996</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C94" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D94">
-        <v>1.0973820999999999</v>
+        <v>0.93580532000000005</v>
       </c>
       <c r="E94">
-        <v>0.93298435000000002</v>
+        <v>0.78484750000000003</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>1.0513368000000001</v>
+        <v>0.97357987999999995</v>
       </c>
       <c r="H94">
-        <v>1.040071</v>
+        <v>1.1140532000000001</v>
       </c>
       <c r="J94" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="K94">
-        <v>1.307847</v>
+        <v>0.80112362000000004</v>
       </c>
       <c r="L94">
-        <v>1.1979561000000001</v>
+        <v>0.63071345999999995</v>
       </c>
       <c r="M94">
         <v>0</v>
       </c>
       <c r="N94">
-        <v>0.79553174999999998</v>
+        <v>0.75589538000000001</v>
       </c>
       <c r="O94">
-        <v>1.2868099</v>
+        <v>0.89000391999999995</v>
       </c>
     </row>
     <row r="95" spans="2:16" x14ac:dyDescent="0.25">
       <c r="C95" t="s">
-        <v>85</v>
+        <v>78</v>
+      </c>
+      <c r="D95">
+        <v>1.2804503</v>
+      </c>
+      <c r="E95">
+        <v>1.7688484</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>1.5135996</v>
+      </c>
+      <c r="H95">
+        <v>0.38106441000000002</v>
       </c>
       <c r="J95" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="99" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>73</v>
-      </c>
-      <c r="C99" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="100" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>74</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>75</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="102" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>76</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="104" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D104" t="s">
-        <v>86</v>
-      </c>
-      <c r="J104" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="105" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D105" t="s">
-        <v>77</v>
-      </c>
-      <c r="E105" t="s">
-        <v>81</v>
-      </c>
-      <c r="F105" t="s">
+        <v>78</v>
+      </c>
+      <c r="K95">
+        <v>0.70292878000000003</v>
+      </c>
+      <c r="L95">
+        <v>1.0705197</v>
+      </c>
+      <c r="M95">
+        <v>0</v>
+      </c>
+      <c r="N95">
+        <v>0.94624925000000004</v>
+      </c>
+      <c r="O95">
+        <v>0.39629101999999999</v>
+      </c>
+    </row>
+    <row r="96" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="C96" t="s">
         <v>79</v>
       </c>
-      <c r="G105" t="s">
-        <v>82</v>
-      </c>
-      <c r="H105" t="s">
-        <v>83</v>
-      </c>
-      <c r="I105" t="s">
+      <c r="D96">
+        <v>1.6125257</v>
+      </c>
+      <c r="E96">
+        <v>1.4419732000000001</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1.656682</v>
+      </c>
+      <c r="H96">
+        <v>1.303936</v>
+      </c>
+      <c r="J96" t="s">
+        <v>79</v>
+      </c>
+      <c r="K96">
+        <v>0.79605888999999996</v>
+      </c>
+      <c r="L96">
+        <v>1.2093035999999999</v>
+      </c>
+      <c r="M96">
+        <v>0</v>
+      </c>
+      <c r="N96">
+        <v>0.57768105999999997</v>
+      </c>
+      <c r="O96">
+        <v>0.98468995000000004</v>
+      </c>
+    </row>
+    <row r="97" spans="3:10" x14ac:dyDescent="0.25">
+      <c r="C97" t="s">
         <v>84</v>
       </c>
-      <c r="K105" t="s">
-        <v>77</v>
-      </c>
-      <c r="L105" t="s">
-        <v>81</v>
-      </c>
-      <c r="M105" t="s">
-        <v>79</v>
-      </c>
-      <c r="N105" t="s">
-        <v>82</v>
-      </c>
-      <c r="O105" t="s">
-        <v>83</v>
-      </c>
-      <c r="P105" t="s">
+      <c r="J97" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="106" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C106" t="s">
-        <v>77</v>
-      </c>
-      <c r="D106">
-        <v>1.0252714000000001</v>
-      </c>
-      <c r="E106">
-        <v>0</v>
-      </c>
-      <c r="F106">
-        <v>0</v>
-      </c>
-      <c r="G106">
-        <v>0</v>
-      </c>
-      <c r="H106">
-        <v>0</v>
-      </c>
-      <c r="J106" t="s">
-        <v>77</v>
-      </c>
-      <c r="K106">
-        <v>0.91425942999999998</v>
-      </c>
-      <c r="L106">
-        <v>0</v>
-      </c>
-      <c r="M106">
-        <v>0</v>
-      </c>
-      <c r="N106">
-        <v>0</v>
-      </c>
-      <c r="O106">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C107" t="s">
-        <v>78</v>
-      </c>
-      <c r="D107">
-        <v>1.2944298000000001</v>
-      </c>
-      <c r="E107">
-        <v>0</v>
-      </c>
-      <c r="F107">
-        <v>1.4843678</v>
-      </c>
-      <c r="G107">
-        <v>1.7106466</v>
-      </c>
-      <c r="H107">
-        <v>0</v>
-      </c>
-      <c r="J107" t="s">
-        <v>78</v>
-      </c>
-      <c r="K107">
-        <v>1.1113667</v>
-      </c>
-      <c r="L107">
-        <v>0</v>
-      </c>
-      <c r="M107">
-        <v>1.6876268000000001</v>
-      </c>
-      <c r="N107">
-        <v>1.2759442000000001</v>
-      </c>
-      <c r="O107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C108" t="s">
-        <v>78</v>
-      </c>
-      <c r="D108">
-        <v>1.2944298000000001</v>
-      </c>
-      <c r="E108">
-        <v>0.96817207000000005</v>
-      </c>
-      <c r="F108">
-        <v>0</v>
-      </c>
-      <c r="G108">
-        <v>1.5949669</v>
-      </c>
-      <c r="H108">
-        <v>1.2384782000000001</v>
-      </c>
-      <c r="J108" t="s">
-        <v>78</v>
-      </c>
-      <c r="K108">
-        <v>1.0748892000000001</v>
-      </c>
-      <c r="L108">
-        <v>1.2970843000000001</v>
-      </c>
-      <c r="M108">
-        <v>0</v>
-      </c>
-      <c r="N108">
-        <v>1.2762022</v>
-      </c>
-      <c r="O108">
-        <v>1.3896852</v>
-      </c>
-    </row>
-    <row r="109" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C109" t="s">
-        <v>79</v>
-      </c>
-      <c r="D109">
-        <v>0.99652147000000002</v>
-      </c>
-      <c r="E109">
-        <v>0.86727619</v>
-      </c>
-      <c r="F109">
-        <v>0</v>
-      </c>
-      <c r="G109">
-        <v>1.1044598000000001</v>
-      </c>
-      <c r="H109">
-        <v>1.0388215000000001</v>
-      </c>
-      <c r="J109" t="s">
-        <v>79</v>
-      </c>
-      <c r="K109">
-        <v>1.3526758999999999</v>
-      </c>
-      <c r="L109">
-        <v>1.3857803</v>
-      </c>
-      <c r="M109">
-        <v>0</v>
-      </c>
-      <c r="N109">
-        <v>1.3696178999999999</v>
-      </c>
-      <c r="O109">
-        <v>1.1476934000000001</v>
-      </c>
-    </row>
-    <row r="110" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C110" t="s">
-        <v>80</v>
-      </c>
-      <c r="D110">
-        <v>1.5350804</v>
-      </c>
-      <c r="E110">
-        <v>1.4484987</v>
-      </c>
-      <c r="F110">
-        <v>0</v>
-      </c>
-      <c r="G110">
-        <v>1.2737346000000001</v>
-      </c>
-      <c r="H110">
-        <v>1.3449964999999999</v>
-      </c>
-      <c r="J110" t="s">
-        <v>80</v>
-      </c>
-      <c r="K110">
-        <v>1.5951419</v>
-      </c>
-      <c r="L110">
-        <v>1.470777</v>
-      </c>
-      <c r="M110">
-        <v>0</v>
-      </c>
-      <c r="N110">
-        <v>0.99026060000000005</v>
-      </c>
-      <c r="O110">
-        <v>1.2549458</v>
-      </c>
-    </row>
-    <row r="111" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>85</v>
-      </c>
-      <c r="J111" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="113" spans="2:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
-        <v>73</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="116" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>74</v>
-      </c>
-      <c r="C116" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="117" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>75</v>
-      </c>
-      <c r="C117" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="118" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>76</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="120" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D120" t="s">
-        <v>86</v>
-      </c>
-      <c r="J120" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="121" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D121" t="s">
-        <v>77</v>
-      </c>
-      <c r="E121" t="s">
-        <v>81</v>
-      </c>
-      <c r="F121" t="s">
-        <v>79</v>
-      </c>
-      <c r="G121" t="s">
-        <v>82</v>
-      </c>
-      <c r="H121" t="s">
-        <v>83</v>
-      </c>
-      <c r="I121" t="s">
-        <v>84</v>
-      </c>
-      <c r="K121" t="s">
-        <v>77</v>
-      </c>
-      <c r="L121" t="s">
-        <v>81</v>
-      </c>
-      <c r="M121" t="s">
-        <v>79</v>
-      </c>
-      <c r="N121" t="s">
-        <v>82</v>
-      </c>
-      <c r="O121" t="s">
-        <v>83</v>
-      </c>
-      <c r="P121" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="122" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C122" t="s">
-        <v>77</v>
-      </c>
-      <c r="D122">
-        <v>0.53187609000000002</v>
-      </c>
-      <c r="E122">
-        <v>0</v>
-      </c>
-      <c r="F122">
-        <v>0</v>
-      </c>
-      <c r="G122">
-        <v>0</v>
-      </c>
-      <c r="H122">
-        <v>0</v>
-      </c>
-      <c r="J122" t="s">
-        <v>77</v>
-      </c>
-      <c r="K122">
-        <v>0.42687892999999999</v>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-      <c r="M122">
-        <v>0</v>
-      </c>
-      <c r="N122">
-        <v>0</v>
-      </c>
-      <c r="O122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C123" t="s">
-        <v>78</v>
-      </c>
-      <c r="D123">
-        <v>0.69529962999999995</v>
-      </c>
-      <c r="E123">
-        <v>0</v>
-      </c>
-      <c r="F123">
-        <v>0.85438727999999997</v>
-      </c>
-      <c r="G123">
-        <v>1.0992679999999999</v>
-      </c>
-      <c r="H123">
-        <v>0</v>
-      </c>
-      <c r="J123" t="s">
-        <v>78</v>
-      </c>
-      <c r="K123">
-        <v>0.68754338999999998</v>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-      <c r="M123">
-        <v>1.1679926</v>
-      </c>
-      <c r="N123">
-        <v>0.75723742999999999</v>
-      </c>
-      <c r="O123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C124" t="s">
-        <v>78</v>
-      </c>
-      <c r="D124">
-        <v>0.69611835</v>
-      </c>
-      <c r="E124">
-        <v>0.54124450999999996</v>
-      </c>
-      <c r="F124">
-        <v>0</v>
-      </c>
-      <c r="G124">
-        <v>0.85551500000000003</v>
-      </c>
-      <c r="H124">
-        <v>0.72900580999999998</v>
-      </c>
-      <c r="J124" t="s">
-        <v>78</v>
-      </c>
-      <c r="K124">
-        <v>0.65539932000000001</v>
-      </c>
-      <c r="L124">
-        <v>0.70524931000000002</v>
-      </c>
-      <c r="M124">
-        <v>0</v>
-      </c>
-      <c r="N124">
-        <v>0.78980826999999998</v>
-      </c>
-      <c r="O124">
-        <v>0.96257018999999999</v>
-      </c>
-    </row>
-    <row r="125" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C125" t="s">
-        <v>79</v>
-      </c>
-      <c r="D125">
-        <v>0.67927313</v>
-      </c>
-      <c r="E125">
-        <v>0.59387301999999997</v>
-      </c>
-      <c r="F125">
-        <v>0</v>
-      </c>
-      <c r="G125">
-        <v>0.66945314</v>
-      </c>
-      <c r="H125">
-        <v>0.62444973000000004</v>
-      </c>
-      <c r="J125" t="s">
-        <v>79</v>
-      </c>
-      <c r="K125">
-        <v>0.85424756999999996</v>
-      </c>
-      <c r="L125">
-        <v>1.0164871</v>
-      </c>
-      <c r="M125">
-        <v>0</v>
-      </c>
-      <c r="N125">
-        <v>0.79936837999999999</v>
-      </c>
-      <c r="O125">
-        <v>0.70182942999999998</v>
-      </c>
-    </row>
-    <row r="126" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C126" t="s">
-        <v>80</v>
-      </c>
-      <c r="D126">
-        <v>0.79368114000000001</v>
-      </c>
-      <c r="E126">
-        <v>0.60543060000000004</v>
-      </c>
-      <c r="F126">
-        <v>0</v>
-      </c>
-      <c r="G126">
-        <v>0.69944954000000004</v>
-      </c>
-      <c r="H126">
-        <v>0.64898204999999998</v>
-      </c>
-      <c r="J126" t="s">
-        <v>80</v>
-      </c>
-      <c r="K126">
-        <v>0.86345004999999997</v>
-      </c>
-      <c r="L126">
-        <v>0.71060562000000005</v>
-      </c>
-      <c r="M126">
-        <v>0</v>
-      </c>
-      <c r="N126">
-        <v>0.55590152999999998</v>
-      </c>
-      <c r="O126">
-        <v>0.65848255</v>
-      </c>
-    </row>
-    <row r="127" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="C127" t="s">
-        <v>85</v>
-      </c>
-      <c r="J127" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129" s="1"/>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130" s="1"/>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131" s="1"/>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
